--- a/doc/클래스별 결과_투명체.xlsx
+++ b/doc/클래스별 결과_투명체.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nia-data\docker image\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6E2295-1161-4F84-960E-88110FCC181C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A20D2-D316-4A0A-8A95-B79E76C3DB1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="투명객체3D" sheetId="2" r:id="rId1"/>
@@ -2477,6 +2477,66 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2504,85 +2564,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2601,33 +2594,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2844,9 +2812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2889,28 +2857,28 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="79"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:29" ht="16.5" customHeight="1">
@@ -2938,16 +2906,16 @@
       <c r="I3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="77" t="s">
         <v>576</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="76" t="s">
         <v>575</v>
       </c>
-      <c r="M3" s="95" t="s">
+      <c r="M3" s="76" t="s">
         <v>577</v>
       </c>
       <c r="N3" s="34" t="s">
@@ -2994,7 +2962,7 @@
       <c r="I4" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="78">
         <v>10.27</v>
       </c>
       <c r="K4" s="24">
@@ -3055,7 +3023,7 @@
       <c r="I5" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J5" s="97">
+      <c r="J5" s="78">
         <v>12.51</v>
       </c>
       <c r="K5" s="24">
@@ -3085,27 +3053,27 @@
       <c r="T5" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="U5" s="100" t="s">
+      <c r="U5" s="81" t="s">
         <v>578</v>
       </c>
       <c r="V5" s="47" t="s">
         <v>534</v>
       </c>
       <c r="W5" s="8"/>
-      <c r="X5" s="85" t="s">
+      <c r="X5" s="87" t="s">
         <v>571</v>
       </c>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="87" t="s">
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="89" t="s">
+      <c r="AA5" s="91" t="s">
         <v>533</v>
       </c>
-      <c r="AB5" s="101" t="s">
+      <c r="AB5" s="95" t="s">
         <v>578</v>
       </c>
-      <c r="AC5" s="91" t="s">
+      <c r="AC5" s="93" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3134,7 +3102,7 @@
       <c r="I6" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="78">
         <v>8.01</v>
       </c>
       <c r="K6" s="24">
@@ -3180,10 +3148,10 @@
       <c r="Y6" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="92"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="94"/>
     </row>
     <row r="7" spans="2:29" ht="16.5" customHeight="1">
       <c r="B7" s="26">
@@ -3210,7 +3178,7 @@
       <c r="I7" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J7" s="97">
+      <c r="J7" s="78">
         <v>9.86</v>
       </c>
       <c r="K7" s="24">
@@ -3260,16 +3228,16 @@
         <f>COUNTIFS($E$4:$E$503,"&gt;="&amp;$X7,$E$4:$E$503,"&lt;"&amp;$Y7)</f>
         <v>416</v>
       </c>
-      <c r="AA7" s="102">
-        <f>AVERAGEIFS(K$4:K$503,$E$4:$E$503,"&gt;="&amp;$X7,$E$4:$E$503,"&lt;"&amp;$Y7)</f>
+      <c r="AA7" s="82">
+        <f t="shared" ref="AA7:AC10" si="2">AVERAGEIFS(K$4:K$503,$E$4:$E$503,"&gt;="&amp;$X7,$E$4:$E$503,"&lt;"&amp;$Y7)</f>
         <v>0.90775144230769278</v>
       </c>
       <c r="AB7" s="61">
-        <f>AVERAGEIFS(L$4:L$503,$E$4:$E$503,"&gt;="&amp;$X7,$E$4:$E$503,"&lt;"&amp;$Y7)</f>
+        <f t="shared" si="2"/>
         <v>0.99185048076922999</v>
       </c>
-      <c r="AC7" s="103">
-        <f>AVERAGEIFS(M$4:M$503,$E$4:$E$503,"&gt;="&amp;$X7,$E$4:$E$503,"&lt;"&amp;$Y7)</f>
+      <c r="AC7" s="83">
+        <f t="shared" si="2"/>
         <v>0.9372812499999994</v>
       </c>
     </row>
@@ -3298,7 +3266,7 @@
       <c r="I8" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="78">
         <v>6.91</v>
       </c>
       <c r="K8" s="24">
@@ -3348,16 +3316,16 @@
         <f>COUNTIFS($E$4:$E$503,"&gt;="&amp;$X8,$E$4:$E$503,"&lt;"&amp;$Y8)</f>
         <v>65</v>
       </c>
-      <c r="AA8" s="104">
-        <f>AVERAGEIFS(K$4:K$503,$E$4:$E$503,"&gt;="&amp;$X8,$E$4:$E$503,"&lt;"&amp;$Y8)</f>
+      <c r="AA8" s="84">
+        <f t="shared" si="2"/>
         <v>0.86867538461538452</v>
       </c>
       <c r="AB8" s="51">
-        <f>AVERAGEIFS(L$4:L$503,$E$4:$E$503,"&gt;="&amp;$X8,$E$4:$E$503,"&lt;"&amp;$Y8)</f>
+        <f t="shared" si="2"/>
         <v>0.991903076923077</v>
       </c>
       <c r="AC8" s="52">
-        <f>AVERAGEIFS(M$4:M$503,$E$4:$E$503,"&gt;="&amp;$X8,$E$4:$E$503,"&lt;"&amp;$Y8)</f>
+        <f t="shared" si="2"/>
         <v>0.94451538461538465</v>
       </c>
     </row>
@@ -3386,7 +3354,7 @@
       <c r="I9" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="78">
         <v>7.81</v>
       </c>
       <c r="K9" s="24">
@@ -3436,16 +3404,16 @@
         <f>COUNTIFS($E$4:$E$503,"&gt;="&amp;$X9,$E$4:$E$503,"&lt;"&amp;$Y9)</f>
         <v>16</v>
       </c>
-      <c r="AA9" s="104">
-        <f>AVERAGEIFS(K$4:K$503,$E$4:$E$503,"&gt;="&amp;$X9,$E$4:$E$503,"&lt;"&amp;$Y9)</f>
+      <c r="AA9" s="84">
+        <f t="shared" si="2"/>
         <v>0.88816249999999985</v>
       </c>
       <c r="AB9" s="51">
-        <f>AVERAGEIFS(L$4:L$503,$E$4:$E$503,"&gt;="&amp;$X9,$E$4:$E$503,"&lt;"&amp;$Y9)</f>
+        <f t="shared" si="2"/>
         <v>0.99776874999999987</v>
       </c>
       <c r="AC9" s="52">
-        <f>AVERAGEIFS(M$4:M$503,$E$4:$E$503,"&gt;="&amp;$X9,$E$4:$E$503,"&lt;"&amp;$Y9)</f>
+        <f t="shared" si="2"/>
         <v>0.92099375000000006</v>
       </c>
     </row>
@@ -3474,7 +3442,7 @@
       <c r="I10" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="78">
         <v>11.38</v>
       </c>
       <c r="K10" s="24">
@@ -3524,16 +3492,16 @@
         <f>COUNTIFS($E$4:$E$503,"&gt;="&amp;$X10,$E$4:$E$503,"&lt;"&amp;$Y10)</f>
         <v>3</v>
       </c>
-      <c r="AA10" s="105">
-        <f>AVERAGEIFS(K$4:K$503,$E$4:$E$503,"&gt;="&amp;$X10,$E$4:$E$503,"&lt;"&amp;$Y10)</f>
+      <c r="AA10" s="85">
+        <f t="shared" si="2"/>
         <v>0.94446666666666668</v>
       </c>
       <c r="AB10" s="62">
-        <f>AVERAGEIFS(L$4:L$503,$E$4:$E$503,"&gt;="&amp;$X10,$E$4:$E$503,"&lt;"&amp;$Y10)</f>
+        <f t="shared" si="2"/>
         <v>0.99603333333333344</v>
       </c>
       <c r="AC10" s="63">
-        <f>AVERAGEIFS(M$4:M$503,$E$4:$E$503,"&gt;="&amp;$X10,$E$4:$E$503,"&lt;"&amp;$Y10)</f>
+        <f t="shared" si="2"/>
         <v>0.96033333333333337</v>
       </c>
     </row>
@@ -3562,7 +3530,7 @@
       <c r="I11" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="78">
         <v>14.48</v>
       </c>
       <c r="K11" s="24">
@@ -3633,7 +3601,7 @@
       <c r="I12" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="78">
         <v>6.1</v>
       </c>
       <c r="K12" s="24">
@@ -3704,7 +3672,7 @@
       <c r="I13" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="78">
         <v>6.7</v>
       </c>
       <c r="K13" s="24">
@@ -3776,7 +3744,7 @@
       <c r="I14" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J14" s="97">
+      <c r="J14" s="78">
         <v>8.2100000000000009</v>
       </c>
       <c r="K14" s="24">
@@ -3820,7 +3788,7 @@
       <c r="AA14" s="73" t="s">
         <v>533</v>
       </c>
-      <c r="AB14" s="100" t="s">
+      <c r="AB14" s="81" t="s">
         <v>578</v>
       </c>
       <c r="AC14" s="47" t="s">
@@ -3852,7 +3820,7 @@
       <c r="I15" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="78">
         <v>6.61</v>
       </c>
       <c r="K15" s="24">
@@ -3897,7 +3865,7 @@
         <f>AVERAGE(K$4:K$503)</f>
         <v>0.90226500000000009</v>
       </c>
-      <c r="AB15" s="99">
+      <c r="AB15" s="80">
         <f>AVERAGE(L$4:L$503)</f>
         <v>0.99207179999999873</v>
       </c>
@@ -3931,7 +3899,7 @@
       <c r="I16" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J16" s="97">
+      <c r="J16" s="78">
         <v>7.09</v>
       </c>
       <c r="K16" s="24">
@@ -4002,7 +3970,7 @@
       <c r="I17" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J17" s="97">
+      <c r="J17" s="78">
         <v>14.28</v>
       </c>
       <c r="K17" s="24">
@@ -4073,7 +4041,7 @@
       <c r="I18" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="78">
         <v>9.57</v>
       </c>
       <c r="K18" s="24">
@@ -4144,7 +4112,7 @@
       <c r="I19" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J19" s="97">
+      <c r="J19" s="78">
         <v>18.190000000000001</v>
       </c>
       <c r="K19" s="24">
@@ -4215,7 +4183,7 @@
       <c r="I20" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J20" s="97">
+      <c r="J20" s="78">
         <v>10.16</v>
       </c>
       <c r="K20" s="24">
@@ -4286,7 +4254,7 @@
       <c r="I21" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="78">
         <v>6.05</v>
       </c>
       <c r="K21" s="24">
@@ -4357,7 +4325,7 @@
       <c r="I22" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J22" s="97">
+      <c r="J22" s="78">
         <v>9.15</v>
       </c>
       <c r="K22" s="24">
@@ -4428,7 +4396,7 @@
       <c r="I23" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J23" s="97">
+      <c r="J23" s="78">
         <v>5.48</v>
       </c>
       <c r="K23" s="24">
@@ -4499,7 +4467,7 @@
       <c r="I24" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J24" s="97">
+      <c r="J24" s="78">
         <v>5.28</v>
       </c>
       <c r="K24" s="24">
@@ -4570,7 +4538,7 @@
       <c r="I25" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J25" s="97">
+      <c r="J25" s="78">
         <v>6.77</v>
       </c>
       <c r="K25" s="24">
@@ -4641,7 +4609,7 @@
       <c r="I26" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J26" s="97">
+      <c r="J26" s="78">
         <v>8.92</v>
       </c>
       <c r="K26" s="24">
@@ -4712,7 +4680,7 @@
       <c r="I27" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J27" s="97">
+      <c r="J27" s="78">
         <v>8.85</v>
       </c>
       <c r="K27" s="24">
@@ -4783,7 +4751,7 @@
       <c r="I28" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J28" s="97">
+      <c r="J28" s="78">
         <v>5.61</v>
       </c>
       <c r="K28" s="24">
@@ -4854,7 +4822,7 @@
       <c r="I29" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J29" s="97">
+      <c r="J29" s="78">
         <v>7.9</v>
       </c>
       <c r="K29" s="24">
@@ -4919,7 +4887,7 @@
       <c r="I30" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J30" s="97">
+      <c r="J30" s="78">
         <v>8.2200000000000006</v>
       </c>
       <c r="K30" s="24">
@@ -4940,15 +4908,15 @@
         <v>0.3</v>
       </c>
       <c r="P30" s="27"/>
-      <c r="R30" s="83" t="s">
+      <c r="R30" s="103" t="s">
         <v>567</v>
       </c>
-      <c r="S30" s="84"/>
+      <c r="S30" s="104"/>
       <c r="T30" s="53">
         <f>AVERAGE(T6:T29)</f>
         <v>0.89398892620573867</v>
       </c>
-      <c r="U30" s="106">
+      <c r="U30" s="86">
         <f>AVERAGE(U6:U29)</f>
         <v>0.9916715053418802</v>
       </c>
@@ -4982,7 +4950,7 @@
       <c r="I31" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J31" s="97">
+      <c r="J31" s="78">
         <v>6.15</v>
       </c>
       <c r="K31" s="24">
@@ -5029,7 +4997,7 @@
       <c r="I32" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J32" s="97">
+      <c r="J32" s="78">
         <v>8.06</v>
       </c>
       <c r="K32" s="24">
@@ -5076,7 +5044,7 @@
       <c r="I33" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J33" s="97">
+      <c r="J33" s="78">
         <v>5.69</v>
       </c>
       <c r="K33" s="24">
@@ -5126,7 +5094,7 @@
       <c r="I34" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J34" s="97">
+      <c r="J34" s="78">
         <v>4.8899999999999997</v>
       </c>
       <c r="K34" s="24">
@@ -5173,7 +5141,7 @@
       <c r="I35" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J35" s="97">
+      <c r="J35" s="78">
         <v>8.23</v>
       </c>
       <c r="K35" s="24">
@@ -5220,7 +5188,7 @@
       <c r="I36" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J36" s="97">
+      <c r="J36" s="78">
         <v>13.51</v>
       </c>
       <c r="K36" s="24">
@@ -5267,7 +5235,7 @@
       <c r="I37" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J37" s="97">
+      <c r="J37" s="78">
         <v>7.87</v>
       </c>
       <c r="K37" s="24">
@@ -5314,7 +5282,7 @@
       <c r="I38" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J38" s="97">
+      <c r="J38" s="78">
         <v>6.65</v>
       </c>
       <c r="K38" s="24">
@@ -5361,7 +5329,7 @@
       <c r="I39" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J39" s="97">
+      <c r="J39" s="78">
         <v>8.98</v>
       </c>
       <c r="K39" s="24">
@@ -5408,7 +5376,7 @@
       <c r="I40" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J40" s="97">
+      <c r="J40" s="78">
         <v>9.8699999999999992</v>
       </c>
       <c r="K40" s="24">
@@ -5455,7 +5423,7 @@
       <c r="I41" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J41" s="97">
+      <c r="J41" s="78">
         <v>4.92</v>
       </c>
       <c r="K41" s="24">
@@ -5502,7 +5470,7 @@
       <c r="I42" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J42" s="97">
+      <c r="J42" s="78">
         <v>13.24</v>
       </c>
       <c r="K42" s="24">
@@ -5549,7 +5517,7 @@
       <c r="I43" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J43" s="97">
+      <c r="J43" s="78">
         <v>11.94</v>
       </c>
       <c r="K43" s="24">
@@ -5596,7 +5564,7 @@
       <c r="I44" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J44" s="97">
+      <c r="J44" s="78">
         <v>3.99</v>
       </c>
       <c r="K44" s="24">
@@ -5643,7 +5611,7 @@
       <c r="I45" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J45" s="97">
+      <c r="J45" s="78">
         <v>4.8600000000000003</v>
       </c>
       <c r="K45" s="24">
@@ -5690,7 +5658,7 @@
       <c r="I46" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J46" s="97">
+      <c r="J46" s="78">
         <v>13.71</v>
       </c>
       <c r="K46" s="24">
@@ -5742,7 +5710,7 @@
       <c r="I47" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J47" s="97">
+      <c r="J47" s="78">
         <v>6.65</v>
       </c>
       <c r="K47" s="24">
@@ -5794,7 +5762,7 @@
       <c r="I48" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J48" s="97">
+      <c r="J48" s="78">
         <v>7.17</v>
       </c>
       <c r="K48" s="24">
@@ -5846,7 +5814,7 @@
       <c r="I49" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J49" s="97">
+      <c r="J49" s="78">
         <v>6.29</v>
       </c>
       <c r="K49" s="24">
@@ -5898,7 +5866,7 @@
       <c r="I50" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J50" s="97">
+      <c r="J50" s="78">
         <v>5.98</v>
       </c>
       <c r="K50" s="24">
@@ -5950,7 +5918,7 @@
       <c r="I51" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J51" s="97">
+      <c r="J51" s="78">
         <v>6.01</v>
       </c>
       <c r="K51" s="24">
@@ -6001,7 +5969,7 @@
       <c r="I52" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J52" s="97">
+      <c r="J52" s="78">
         <v>7.43</v>
       </c>
       <c r="K52" s="24">
@@ -6053,7 +6021,7 @@
       <c r="I53" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J53" s="97">
+      <c r="J53" s="78">
         <v>5.85</v>
       </c>
       <c r="K53" s="24">
@@ -6104,7 +6072,7 @@
       <c r="I54" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J54" s="97">
+      <c r="J54" s="78">
         <v>5.85</v>
       </c>
       <c r="K54" s="24">
@@ -6156,7 +6124,7 @@
       <c r="I55" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J55" s="97">
+      <c r="J55" s="78">
         <v>10.24</v>
       </c>
       <c r="K55" s="24">
@@ -6207,7 +6175,7 @@
       <c r="I56" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J56" s="97">
+      <c r="J56" s="78">
         <v>5.43</v>
       </c>
       <c r="K56" s="24">
@@ -6259,7 +6227,7 @@
       <c r="I57" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J57" s="97">
+      <c r="J57" s="78">
         <v>3.61</v>
       </c>
       <c r="K57" s="24">
@@ -6310,7 +6278,7 @@
       <c r="I58" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J58" s="97">
+      <c r="J58" s="78">
         <v>3.78</v>
       </c>
       <c r="K58" s="24">
@@ -6362,7 +6330,7 @@
       <c r="I59" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J59" s="97">
+      <c r="J59" s="78">
         <v>7.34</v>
       </c>
       <c r="K59" s="24">
@@ -6414,7 +6382,7 @@
       <c r="I60" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J60" s="97">
+      <c r="J60" s="78">
         <v>3.87</v>
       </c>
       <c r="K60" s="24">
@@ -6462,7 +6430,7 @@
       <c r="I61" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J61" s="97">
+      <c r="J61" s="78">
         <v>29.75</v>
       </c>
       <c r="K61" s="24">
@@ -6513,7 +6481,7 @@
       <c r="I62" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J62" s="97">
+      <c r="J62" s="78">
         <v>7.03</v>
       </c>
       <c r="K62" s="24">
@@ -6560,7 +6528,7 @@
       <c r="I63" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J63" s="97">
+      <c r="J63" s="78">
         <v>6.54</v>
       </c>
       <c r="K63" s="24">
@@ -6610,7 +6578,7 @@
       <c r="I64" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J64" s="97">
+      <c r="J64" s="78">
         <v>6.95</v>
       </c>
       <c r="K64" s="24">
@@ -6657,7 +6625,7 @@
       <c r="I65" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J65" s="97">
+      <c r="J65" s="78">
         <v>8.2200000000000006</v>
       </c>
       <c r="K65" s="24">
@@ -6708,7 +6676,7 @@
       <c r="I66" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J66" s="97">
+      <c r="J66" s="78">
         <v>8.48</v>
       </c>
       <c r="K66" s="24">
@@ -6755,7 +6723,7 @@
       <c r="I67" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J67" s="97">
+      <c r="J67" s="78">
         <v>7.46</v>
       </c>
       <c r="K67" s="24">
@@ -6802,7 +6770,7 @@
       <c r="I68" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J68" s="97">
+      <c r="J68" s="78">
         <v>33.82</v>
       </c>
       <c r="K68" s="24">
@@ -6849,7 +6817,7 @@
       <c r="I69" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J69" s="97">
+      <c r="J69" s="78">
         <v>7.75</v>
       </c>
       <c r="K69" s="24">
@@ -6896,7 +6864,7 @@
       <c r="I70" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J70" s="97">
+      <c r="J70" s="78">
         <v>10.039999999999999</v>
       </c>
       <c r="K70" s="24">
@@ -6943,7 +6911,7 @@
       <c r="I71" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J71" s="97">
+      <c r="J71" s="78">
         <v>20.62</v>
       </c>
       <c r="K71" s="24">
@@ -6990,7 +6958,7 @@
       <c r="I72" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J72" s="97">
+      <c r="J72" s="78">
         <v>3.2</v>
       </c>
       <c r="K72" s="24">
@@ -7037,7 +7005,7 @@
       <c r="I73" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J73" s="97">
+      <c r="J73" s="78">
         <v>8.6999999999999993</v>
       </c>
       <c r="K73" s="24">
@@ -7084,7 +7052,7 @@
       <c r="I74" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J74" s="97">
+      <c r="J74" s="78">
         <v>6.19</v>
       </c>
       <c r="K74" s="24">
@@ -7131,7 +7099,7 @@
       <c r="I75" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J75" s="97">
+      <c r="J75" s="78">
         <v>4.66</v>
       </c>
       <c r="K75" s="24">
@@ -7178,7 +7146,7 @@
       <c r="I76" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J76" s="97">
+      <c r="J76" s="78">
         <v>5.99</v>
       </c>
       <c r="K76" s="24">
@@ -7225,7 +7193,7 @@
       <c r="I77" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J77" s="97">
+      <c r="J77" s="78">
         <v>7.33</v>
       </c>
       <c r="K77" s="24">
@@ -7272,7 +7240,7 @@
       <c r="I78" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J78" s="97">
+      <c r="J78" s="78">
         <v>6.03</v>
       </c>
       <c r="K78" s="24">
@@ -7319,7 +7287,7 @@
       <c r="I79" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J79" s="97">
+      <c r="J79" s="78">
         <v>9.49</v>
       </c>
       <c r="K79" s="24">
@@ -7366,7 +7334,7 @@
       <c r="I80" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J80" s="97">
+      <c r="J80" s="78">
         <v>11.58</v>
       </c>
       <c r="K80" s="24">
@@ -7413,7 +7381,7 @@
       <c r="I81" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J81" s="97">
+      <c r="J81" s="78">
         <v>9.67</v>
       </c>
       <c r="K81" s="24">
@@ -7460,7 +7428,7 @@
       <c r="I82" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J82" s="97">
+      <c r="J82" s="78">
         <v>11</v>
       </c>
       <c r="K82" s="24">
@@ -7507,7 +7475,7 @@
       <c r="I83" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J83" s="97">
+      <c r="J83" s="78">
         <v>6.98</v>
       </c>
       <c r="K83" s="24">
@@ -7554,7 +7522,7 @@
       <c r="I84" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J84" s="97">
+      <c r="J84" s="78">
         <v>3.42</v>
       </c>
       <c r="K84" s="24">
@@ -7601,7 +7569,7 @@
       <c r="I85" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J85" s="97">
+      <c r="J85" s="78">
         <v>10.02</v>
       </c>
       <c r="K85" s="24">
@@ -7648,7 +7616,7 @@
       <c r="I86" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J86" s="97">
+      <c r="J86" s="78">
         <v>6.9</v>
       </c>
       <c r="K86" s="24">
@@ -7695,7 +7663,7 @@
       <c r="I87" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J87" s="97">
+      <c r="J87" s="78">
         <v>7.83</v>
       </c>
       <c r="K87" s="24">
@@ -7742,7 +7710,7 @@
       <c r="I88" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J88" s="97">
+      <c r="J88" s="78">
         <v>6.67</v>
       </c>
       <c r="K88" s="24">
@@ -7789,7 +7757,7 @@
       <c r="I89" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J89" s="97">
+      <c r="J89" s="78">
         <v>4.18</v>
       </c>
       <c r="K89" s="24">
@@ -7836,7 +7804,7 @@
       <c r="I90" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J90" s="97">
+      <c r="J90" s="78">
         <v>13.07</v>
       </c>
       <c r="K90" s="24">
@@ -7883,7 +7851,7 @@
       <c r="I91" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J91" s="97">
+      <c r="J91" s="78">
         <v>9.82</v>
       </c>
       <c r="K91" s="24">
@@ -7930,7 +7898,7 @@
       <c r="I92" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J92" s="97">
+      <c r="J92" s="78">
         <v>5.96</v>
       </c>
       <c r="K92" s="24">
@@ -7977,7 +7945,7 @@
       <c r="I93" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J93" s="97">
+      <c r="J93" s="78">
         <v>10.34</v>
       </c>
       <c r="K93" s="24">
@@ -8024,7 +7992,7 @@
       <c r="I94" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J94" s="97">
+      <c r="J94" s="78">
         <v>6.17</v>
       </c>
       <c r="K94" s="24">
@@ -8071,7 +8039,7 @@
       <c r="I95" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J95" s="97">
+      <c r="J95" s="78">
         <v>9.34</v>
       </c>
       <c r="K95" s="24">
@@ -8118,7 +8086,7 @@
       <c r="I96" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J96" s="97">
+      <c r="J96" s="78">
         <v>7.52</v>
       </c>
       <c r="K96" s="24">
@@ -8165,7 +8133,7 @@
       <c r="I97" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J97" s="97">
+      <c r="J97" s="78">
         <v>5.67</v>
       </c>
       <c r="K97" s="24">
@@ -8212,7 +8180,7 @@
       <c r="I98" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J98" s="97">
+      <c r="J98" s="78">
         <v>6.47</v>
       </c>
       <c r="K98" s="24">
@@ -8259,7 +8227,7 @@
       <c r="I99" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J99" s="97">
+      <c r="J99" s="78">
         <v>6.13</v>
       </c>
       <c r="K99" s="24">
@@ -8306,7 +8274,7 @@
       <c r="I100" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J100" s="97">
+      <c r="J100" s="78">
         <v>9.0299999999999994</v>
       </c>
       <c r="K100" s="24">
@@ -8353,7 +8321,7 @@
       <c r="I101" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J101" s="97">
+      <c r="J101" s="78">
         <v>5.98</v>
       </c>
       <c r="K101" s="24">
@@ -8400,7 +8368,7 @@
       <c r="I102" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J102" s="97">
+      <c r="J102" s="78">
         <v>5.31</v>
       </c>
       <c r="K102" s="24">
@@ -8447,7 +8415,7 @@
       <c r="I103" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J103" s="97">
+      <c r="J103" s="78">
         <v>7.2</v>
       </c>
       <c r="K103" s="24">
@@ -8494,7 +8462,7 @@
       <c r="I104" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J104" s="97">
+      <c r="J104" s="78">
         <v>55.44</v>
       </c>
       <c r="K104" s="24">
@@ -8541,7 +8509,7 @@
       <c r="I105" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J105" s="97">
+      <c r="J105" s="78">
         <v>7.01</v>
       </c>
       <c r="K105" s="24">
@@ -8588,7 +8556,7 @@
       <c r="I106" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J106" s="97">
+      <c r="J106" s="78">
         <v>24.14</v>
       </c>
       <c r="K106" s="24">
@@ -8635,7 +8603,7 @@
       <c r="I107" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J107" s="97">
+      <c r="J107" s="78">
         <v>9.18</v>
       </c>
       <c r="K107" s="24">
@@ -8682,7 +8650,7 @@
       <c r="I108" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J108" s="97">
+      <c r="J108" s="78">
         <v>11.46</v>
       </c>
       <c r="K108" s="24">
@@ -8729,7 +8697,7 @@
       <c r="I109" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J109" s="97">
+      <c r="J109" s="78">
         <v>9.42</v>
       </c>
       <c r="K109" s="24">
@@ -8776,7 +8744,7 @@
       <c r="I110" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J110" s="97">
+      <c r="J110" s="78">
         <v>3.6</v>
       </c>
       <c r="K110" s="24">
@@ -8823,7 +8791,7 @@
       <c r="I111" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J111" s="97">
+      <c r="J111" s="78">
         <v>7.64</v>
       </c>
       <c r="K111" s="24">
@@ -8870,7 +8838,7 @@
       <c r="I112" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J112" s="97">
+      <c r="J112" s="78">
         <v>7.51</v>
       </c>
       <c r="K112" s="24">
@@ -8917,7 +8885,7 @@
       <c r="I113" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J113" s="97">
+      <c r="J113" s="78">
         <v>8.2799999999999994</v>
       </c>
       <c r="K113" s="24">
@@ -8964,7 +8932,7 @@
       <c r="I114" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J114" s="97">
+      <c r="J114" s="78">
         <v>9.39</v>
       </c>
       <c r="K114" s="24">
@@ -9011,7 +8979,7 @@
       <c r="I115" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J115" s="97">
+      <c r="J115" s="78">
         <v>9.19</v>
       </c>
       <c r="K115" s="24">
@@ -9058,7 +9026,7 @@
       <c r="I116" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J116" s="97">
+      <c r="J116" s="78">
         <v>6.67</v>
       </c>
       <c r="K116" s="24">
@@ -9105,7 +9073,7 @@
       <c r="I117" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J117" s="97">
+      <c r="J117" s="78">
         <v>10.039999999999999</v>
       </c>
       <c r="K117" s="24">
@@ -9152,7 +9120,7 @@
       <c r="I118" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J118" s="97">
+      <c r="J118" s="78">
         <v>10.38</v>
       </c>
       <c r="K118" s="24">
@@ -9199,7 +9167,7 @@
       <c r="I119" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J119" s="97">
+      <c r="J119" s="78">
         <v>8.59</v>
       </c>
       <c r="K119" s="24">
@@ -9246,7 +9214,7 @@
       <c r="I120" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J120" s="97">
+      <c r="J120" s="78">
         <v>10.86</v>
       </c>
       <c r="K120" s="24">
@@ -9293,7 +9261,7 @@
       <c r="I121" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J121" s="97">
+      <c r="J121" s="78">
         <v>7.82</v>
       </c>
       <c r="K121" s="24">
@@ -9340,7 +9308,7 @@
       <c r="I122" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J122" s="97">
+      <c r="J122" s="78">
         <v>10.77</v>
       </c>
       <c r="K122" s="24">
@@ -9387,7 +9355,7 @@
       <c r="I123" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J123" s="97">
+      <c r="J123" s="78">
         <v>8.57</v>
       </c>
       <c r="K123" s="24">
@@ -9434,7 +9402,7 @@
       <c r="I124" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J124" s="97">
+      <c r="J124" s="78">
         <v>8.52</v>
       </c>
       <c r="K124" s="24">
@@ -9481,7 +9449,7 @@
       <c r="I125" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J125" s="97">
+      <c r="J125" s="78">
         <v>21.95</v>
       </c>
       <c r="K125" s="24">
@@ -9528,7 +9496,7 @@
       <c r="I126" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J126" s="97">
+      <c r="J126" s="78">
         <v>9.31</v>
       </c>
       <c r="K126" s="24">
@@ -9575,7 +9543,7 @@
       <c r="I127" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J127" s="97">
+      <c r="J127" s="78">
         <v>10.34</v>
       </c>
       <c r="K127" s="24">
@@ -9622,7 +9590,7 @@
       <c r="I128" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J128" s="97">
+      <c r="J128" s="78">
         <v>9.0399999999999991</v>
       </c>
       <c r="K128" s="24">
@@ -9669,7 +9637,7 @@
       <c r="I129" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J129" s="97">
+      <c r="J129" s="78">
         <v>8.31</v>
       </c>
       <c r="K129" s="24">
@@ -9716,7 +9684,7 @@
       <c r="I130" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J130" s="97">
+      <c r="J130" s="78">
         <v>16.829999999999998</v>
       </c>
       <c r="K130" s="24">
@@ -9763,7 +9731,7 @@
       <c r="I131" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J131" s="97">
+      <c r="J131" s="78">
         <v>10.94</v>
       </c>
       <c r="K131" s="24">
@@ -9810,7 +9778,7 @@
       <c r="I132" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J132" s="97">
+      <c r="J132" s="78">
         <v>12.11</v>
       </c>
       <c r="K132" s="24">
@@ -9857,7 +9825,7 @@
       <c r="I133" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J133" s="97">
+      <c r="J133" s="78">
         <v>5.38</v>
       </c>
       <c r="K133" s="24">
@@ -9904,7 +9872,7 @@
       <c r="I134" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J134" s="97">
+      <c r="J134" s="78">
         <v>4.29</v>
       </c>
       <c r="K134" s="24">
@@ -9951,7 +9919,7 @@
       <c r="I135" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J135" s="97">
+      <c r="J135" s="78">
         <v>11.27</v>
       </c>
       <c r="K135" s="24">
@@ -9998,7 +9966,7 @@
       <c r="I136" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J136" s="97">
+      <c r="J136" s="78">
         <v>9.0500000000000007</v>
       </c>
       <c r="K136" s="24">
@@ -10045,7 +10013,7 @@
       <c r="I137" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J137" s="97">
+      <c r="J137" s="78">
         <v>7.65</v>
       </c>
       <c r="K137" s="24">
@@ -10092,7 +10060,7 @@
       <c r="I138" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J138" s="97">
+      <c r="J138" s="78">
         <v>11.34</v>
       </c>
       <c r="K138" s="24">
@@ -10139,7 +10107,7 @@
       <c r="I139" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J139" s="97">
+      <c r="J139" s="78">
         <v>11.84</v>
       </c>
       <c r="K139" s="24">
@@ -10186,7 +10154,7 @@
       <c r="I140" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J140" s="97">
+      <c r="J140" s="78">
         <v>6.2</v>
       </c>
       <c r="K140" s="24">
@@ -10233,7 +10201,7 @@
       <c r="I141" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J141" s="97">
+      <c r="J141" s="78">
         <v>9.27</v>
       </c>
       <c r="K141" s="24">
@@ -10280,7 +10248,7 @@
       <c r="I142" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J142" s="97">
+      <c r="J142" s="78">
         <v>10.94</v>
       </c>
       <c r="K142" s="24">
@@ -10327,7 +10295,7 @@
       <c r="I143" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J143" s="97">
+      <c r="J143" s="78">
         <v>4.3499999999999996</v>
       </c>
       <c r="K143" s="24">
@@ -10374,7 +10342,7 @@
       <c r="I144" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J144" s="97">
+      <c r="J144" s="78">
         <v>11.06</v>
       </c>
       <c r="K144" s="24">
@@ -10421,7 +10389,7 @@
       <c r="I145" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J145" s="97">
+      <c r="J145" s="78">
         <v>8.99</v>
       </c>
       <c r="K145" s="24">
@@ -10468,7 +10436,7 @@
       <c r="I146" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J146" s="97">
+      <c r="J146" s="78">
         <v>3.8</v>
       </c>
       <c r="K146" s="24">
@@ -10515,7 +10483,7 @@
       <c r="I147" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J147" s="97">
+      <c r="J147" s="78">
         <v>6.43</v>
       </c>
       <c r="K147" s="24">
@@ -10562,7 +10530,7 @@
       <c r="I148" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J148" s="97">
+      <c r="J148" s="78">
         <v>7.01</v>
       </c>
       <c r="K148" s="24">
@@ -10609,7 +10577,7 @@
       <c r="I149" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J149" s="97">
+      <c r="J149" s="78">
         <v>6.45</v>
       </c>
       <c r="K149" s="24">
@@ -10656,7 +10624,7 @@
       <c r="I150" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J150" s="97">
+      <c r="J150" s="78">
         <v>7.73</v>
       </c>
       <c r="K150" s="24">
@@ -10703,7 +10671,7 @@
       <c r="I151" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J151" s="97">
+      <c r="J151" s="78">
         <v>5.9</v>
       </c>
       <c r="K151" s="24">
@@ -10750,7 +10718,7 @@
       <c r="I152" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J152" s="97">
+      <c r="J152" s="78">
         <v>7.18</v>
       </c>
       <c r="K152" s="24">
@@ -10797,7 +10765,7 @@
       <c r="I153" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J153" s="97">
+      <c r="J153" s="78">
         <v>8</v>
       </c>
       <c r="K153" s="24">
@@ -10844,7 +10812,7 @@
       <c r="I154" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J154" s="97">
+      <c r="J154" s="78">
         <v>3.04</v>
       </c>
       <c r="K154" s="24">
@@ -10891,7 +10859,7 @@
       <c r="I155" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J155" s="97">
+      <c r="J155" s="78">
         <v>6.24</v>
       </c>
       <c r="K155" s="24">
@@ -10938,7 +10906,7 @@
       <c r="I156" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J156" s="97">
+      <c r="J156" s="78">
         <v>7.78</v>
       </c>
       <c r="K156" s="24">
@@ -10985,7 +10953,7 @@
       <c r="I157" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J157" s="97">
+      <c r="J157" s="78">
         <v>9.5399999999999991</v>
       </c>
       <c r="K157" s="24">
@@ -11032,7 +11000,7 @@
       <c r="I158" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J158" s="97">
+      <c r="J158" s="78">
         <v>8.4700000000000006</v>
       </c>
       <c r="K158" s="24">
@@ -11079,7 +11047,7 @@
       <c r="I159" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J159" s="97">
+      <c r="J159" s="78">
         <v>7.01</v>
       </c>
       <c r="K159" s="24">
@@ -11126,7 +11094,7 @@
       <c r="I160" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J160" s="97">
+      <c r="J160" s="78">
         <v>4.75</v>
       </c>
       <c r="K160" s="24">
@@ -11173,7 +11141,7 @@
       <c r="I161" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J161" s="97">
+      <c r="J161" s="78">
         <v>11.47</v>
       </c>
       <c r="K161" s="24">
@@ -11220,7 +11188,7 @@
       <c r="I162" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J162" s="97">
+      <c r="J162" s="78">
         <v>8.77</v>
       </c>
       <c r="K162" s="24">
@@ -11267,7 +11235,7 @@
       <c r="I163" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J163" s="97">
+      <c r="J163" s="78">
         <v>9.2100000000000009</v>
       </c>
       <c r="K163" s="24">
@@ -11314,7 +11282,7 @@
       <c r="I164" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J164" s="97">
+      <c r="J164" s="78">
         <v>7.22</v>
       </c>
       <c r="K164" s="24">
@@ -11361,7 +11329,7 @@
       <c r="I165" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J165" s="97">
+      <c r="J165" s="78">
         <v>10.3</v>
       </c>
       <c r="K165" s="24">
@@ -11408,7 +11376,7 @@
       <c r="I166" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J166" s="97">
+      <c r="J166" s="78">
         <v>5.2</v>
       </c>
       <c r="K166" s="24">
@@ -11455,7 +11423,7 @@
       <c r="I167" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J167" s="97">
+      <c r="J167" s="78">
         <v>6.48</v>
       </c>
       <c r="K167" s="24">
@@ -11502,7 +11470,7 @@
       <c r="I168" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J168" s="97">
+      <c r="J168" s="78">
         <v>14.6</v>
       </c>
       <c r="K168" s="24">
@@ -11549,7 +11517,7 @@
       <c r="I169" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J169" s="97">
+      <c r="J169" s="78">
         <v>8.34</v>
       </c>
       <c r="K169" s="24">
@@ -11596,7 +11564,7 @@
       <c r="I170" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J170" s="97">
+      <c r="J170" s="78">
         <v>13.01</v>
       </c>
       <c r="K170" s="24">
@@ -11643,7 +11611,7 @@
       <c r="I171" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J171" s="97">
+      <c r="J171" s="78">
         <v>8.66</v>
       </c>
       <c r="K171" s="24">
@@ -11690,7 +11658,7 @@
       <c r="I172" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J172" s="97">
+      <c r="J172" s="78">
         <v>5.83</v>
       </c>
       <c r="K172" s="24">
@@ -11737,7 +11705,7 @@
       <c r="I173" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J173" s="97">
+      <c r="J173" s="78">
         <v>12.82</v>
       </c>
       <c r="K173" s="24">
@@ -11784,7 +11752,7 @@
       <c r="I174" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J174" s="97">
+      <c r="J174" s="78">
         <v>7.44</v>
       </c>
       <c r="K174" s="24">
@@ -11831,7 +11799,7 @@
       <c r="I175" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J175" s="97">
+      <c r="J175" s="78">
         <v>6.21</v>
       </c>
       <c r="K175" s="24">
@@ -11878,7 +11846,7 @@
       <c r="I176" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J176" s="97">
+      <c r="J176" s="78">
         <v>9.3699999999999992</v>
       </c>
       <c r="K176" s="24">
@@ -11925,7 +11893,7 @@
       <c r="I177" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J177" s="97">
+      <c r="J177" s="78">
         <v>9.2100000000000009</v>
       </c>
       <c r="K177" s="24">
@@ -11972,7 +11940,7 @@
       <c r="I178" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J178" s="97">
+      <c r="J178" s="78">
         <v>8.3000000000000007</v>
       </c>
       <c r="K178" s="24">
@@ -12019,7 +11987,7 @@
       <c r="I179" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J179" s="97">
+      <c r="J179" s="78">
         <v>111.89</v>
       </c>
       <c r="K179" s="24">
@@ -12066,7 +12034,7 @@
       <c r="I180" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J180" s="97">
+      <c r="J180" s="78">
         <v>30.96</v>
       </c>
       <c r="K180" s="24">
@@ -12113,7 +12081,7 @@
       <c r="I181" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J181" s="97">
+      <c r="J181" s="78">
         <v>3.57</v>
       </c>
       <c r="K181" s="24">
@@ -12160,7 +12128,7 @@
       <c r="I182" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J182" s="97">
+      <c r="J182" s="78">
         <v>6.55</v>
       </c>
       <c r="K182" s="24">
@@ -12207,7 +12175,7 @@
       <c r="I183" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J183" s="97">
+      <c r="J183" s="78">
         <v>5.32</v>
       </c>
       <c r="K183" s="24">
@@ -12254,7 +12222,7 @@
       <c r="I184" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J184" s="97">
+      <c r="J184" s="78">
         <v>16.61</v>
       </c>
       <c r="K184" s="24">
@@ -12301,7 +12269,7 @@
       <c r="I185" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J185" s="97">
+      <c r="J185" s="78">
         <v>9.66</v>
       </c>
       <c r="K185" s="24">
@@ -12348,7 +12316,7 @@
       <c r="I186" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J186" s="97">
+      <c r="J186" s="78">
         <v>19.04</v>
       </c>
       <c r="K186" s="24">
@@ -12395,7 +12363,7 @@
       <c r="I187" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J187" s="97">
+      <c r="J187" s="78">
         <v>10.08</v>
       </c>
       <c r="K187" s="24">
@@ -12442,7 +12410,7 @@
       <c r="I188" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J188" s="97">
+      <c r="J188" s="78">
         <v>38.299999999999997</v>
       </c>
       <c r="K188" s="24">
@@ -12489,7 +12457,7 @@
       <c r="I189" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J189" s="97">
+      <c r="J189" s="78">
         <v>10.64</v>
       </c>
       <c r="K189" s="24">
@@ -12536,7 +12504,7 @@
       <c r="I190" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J190" s="97">
+      <c r="J190" s="78">
         <v>10.86</v>
       </c>
       <c r="K190" s="24">
@@ -12583,7 +12551,7 @@
       <c r="I191" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J191" s="97">
+      <c r="J191" s="78">
         <v>11.94</v>
       </c>
       <c r="K191" s="24">
@@ -12630,7 +12598,7 @@
       <c r="I192" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J192" s="97">
+      <c r="J192" s="78">
         <v>14.98</v>
       </c>
       <c r="K192" s="24">
@@ -12677,7 +12645,7 @@
       <c r="I193" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J193" s="97">
+      <c r="J193" s="78">
         <v>7.42</v>
       </c>
       <c r="K193" s="24">
@@ -12724,7 +12692,7 @@
       <c r="I194" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J194" s="97">
+      <c r="J194" s="78">
         <v>7.5</v>
       </c>
       <c r="K194" s="24">
@@ -12771,7 +12739,7 @@
       <c r="I195" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J195" s="97">
+      <c r="J195" s="78">
         <v>7.36</v>
       </c>
       <c r="K195" s="24">
@@ -12818,7 +12786,7 @@
       <c r="I196" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J196" s="97">
+      <c r="J196" s="78">
         <v>23.46</v>
       </c>
       <c r="K196" s="24">
@@ -12865,7 +12833,7 @@
       <c r="I197" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J197" s="97">
+      <c r="J197" s="78">
         <v>13.19</v>
       </c>
       <c r="K197" s="24">
@@ -12912,7 +12880,7 @@
       <c r="I198" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J198" s="97">
+      <c r="J198" s="78">
         <v>10.57</v>
       </c>
       <c r="K198" s="24">
@@ -12959,7 +12927,7 @@
       <c r="I199" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J199" s="97">
+      <c r="J199" s="78">
         <v>6.6</v>
       </c>
       <c r="K199" s="24">
@@ -13006,7 +12974,7 @@
       <c r="I200" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J200" s="97">
+      <c r="J200" s="78">
         <v>12.39</v>
       </c>
       <c r="K200" s="24">
@@ -13053,7 +13021,7 @@
       <c r="I201" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J201" s="97">
+      <c r="J201" s="78">
         <v>8</v>
       </c>
       <c r="K201" s="24">
@@ -13100,7 +13068,7 @@
       <c r="I202" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J202" s="97">
+      <c r="J202" s="78">
         <v>5.07</v>
       </c>
       <c r="K202" s="24">
@@ -13147,7 +13115,7 @@
       <c r="I203" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J203" s="97">
+      <c r="J203" s="78">
         <v>22.82</v>
       </c>
       <c r="K203" s="24">
@@ -13194,7 +13162,7 @@
       <c r="I204" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J204" s="97">
+      <c r="J204" s="78">
         <v>16.11</v>
       </c>
       <c r="K204" s="24">
@@ -13241,7 +13209,7 @@
       <c r="I205" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J205" s="97">
+      <c r="J205" s="78">
         <v>3.86</v>
       </c>
       <c r="K205" s="24">
@@ -13288,7 +13256,7 @@
       <c r="I206" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J206" s="97">
+      <c r="J206" s="78">
         <v>6.79</v>
       </c>
       <c r="K206" s="24">
@@ -13335,7 +13303,7 @@
       <c r="I207" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J207" s="97">
+      <c r="J207" s="78">
         <v>3.18</v>
       </c>
       <c r="K207" s="24">
@@ -13382,7 +13350,7 @@
       <c r="I208" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J208" s="97">
+      <c r="J208" s="78">
         <v>9.75</v>
       </c>
       <c r="K208" s="24">
@@ -13429,7 +13397,7 @@
       <c r="I209" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J209" s="97">
+      <c r="J209" s="78">
         <v>9.6300000000000008</v>
       </c>
       <c r="K209" s="24">
@@ -13476,7 +13444,7 @@
       <c r="I210" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J210" s="97">
+      <c r="J210" s="78">
         <v>11.04</v>
       </c>
       <c r="K210" s="24">
@@ -13523,7 +13491,7 @@
       <c r="I211" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J211" s="97">
+      <c r="J211" s="78">
         <v>10.210000000000001</v>
       </c>
       <c r="K211" s="24">
@@ -13570,7 +13538,7 @@
       <c r="I212" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J212" s="97">
+      <c r="J212" s="78">
         <v>6.96</v>
       </c>
       <c r="K212" s="24">
@@ -13617,7 +13585,7 @@
       <c r="I213" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J213" s="97">
+      <c r="J213" s="78">
         <v>7.28</v>
       </c>
       <c r="K213" s="24">
@@ -13664,7 +13632,7 @@
       <c r="I214" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J214" s="97">
+      <c r="J214" s="78">
         <v>8.98</v>
       </c>
       <c r="K214" s="24">
@@ -13711,7 +13679,7 @@
       <c r="I215" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J215" s="97">
+      <c r="J215" s="78">
         <v>12.87</v>
       </c>
       <c r="K215" s="24">
@@ -13758,7 +13726,7 @@
       <c r="I216" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J216" s="97">
+      <c r="J216" s="78">
         <v>6.38</v>
       </c>
       <c r="K216" s="24">
@@ -13805,7 +13773,7 @@
       <c r="I217" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J217" s="97">
+      <c r="J217" s="78">
         <v>10.7</v>
       </c>
       <c r="K217" s="24">
@@ -13852,7 +13820,7 @@
       <c r="I218" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J218" s="97">
+      <c r="J218" s="78">
         <v>4.55</v>
       </c>
       <c r="K218" s="24">
@@ -13899,7 +13867,7 @@
       <c r="I219" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J219" s="97">
+      <c r="J219" s="78">
         <v>6.33</v>
       </c>
       <c r="K219" s="24">
@@ -13946,7 +13914,7 @@
       <c r="I220" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J220" s="97">
+      <c r="J220" s="78">
         <v>11.8</v>
       </c>
       <c r="K220" s="24">
@@ -13993,7 +13961,7 @@
       <c r="I221" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J221" s="97">
+      <c r="J221" s="78">
         <v>7.72</v>
       </c>
       <c r="K221" s="24">
@@ -14040,7 +14008,7 @@
       <c r="I222" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J222" s="97">
+      <c r="J222" s="78">
         <v>4.47</v>
       </c>
       <c r="K222" s="24">
@@ -14087,7 +14055,7 @@
       <c r="I223" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J223" s="97">
+      <c r="J223" s="78">
         <v>7.32</v>
       </c>
       <c r="K223" s="24">
@@ -14134,7 +14102,7 @@
       <c r="I224" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J224" s="97">
+      <c r="J224" s="78">
         <v>12.28</v>
       </c>
       <c r="K224" s="24">
@@ -14181,7 +14149,7 @@
       <c r="I225" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J225" s="97">
+      <c r="J225" s="78">
         <v>7.46</v>
       </c>
       <c r="K225" s="24">
@@ -14228,7 +14196,7 @@
       <c r="I226" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J226" s="97">
+      <c r="J226" s="78">
         <v>8.43</v>
       </c>
       <c r="K226" s="24">
@@ -14275,7 +14243,7 @@
       <c r="I227" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J227" s="97">
+      <c r="J227" s="78">
         <v>49.77</v>
       </c>
       <c r="K227" s="24">
@@ -14322,7 +14290,7 @@
       <c r="I228" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J228" s="97">
+      <c r="J228" s="78">
         <v>17.41</v>
       </c>
       <c r="K228" s="24">
@@ -14369,7 +14337,7 @@
       <c r="I229" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J229" s="97">
+      <c r="J229" s="78">
         <v>9.5299999999999994</v>
       </c>
       <c r="K229" s="24">
@@ -14416,7 +14384,7 @@
       <c r="I230" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J230" s="97">
+      <c r="J230" s="78">
         <v>8.51</v>
       </c>
       <c r="K230" s="24">
@@ -14463,7 +14431,7 @@
       <c r="I231" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J231" s="97">
+      <c r="J231" s="78">
         <v>9.34</v>
       </c>
       <c r="K231" s="24">
@@ -14510,7 +14478,7 @@
       <c r="I232" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J232" s="97">
+      <c r="J232" s="78">
         <v>6.65</v>
       </c>
       <c r="K232" s="24">
@@ -14557,7 +14525,7 @@
       <c r="I233" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J233" s="97">
+      <c r="J233" s="78">
         <v>8.1999999999999993</v>
       </c>
       <c r="K233" s="24">
@@ -14604,7 +14572,7 @@
       <c r="I234" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J234" s="97">
+      <c r="J234" s="78">
         <v>7.21</v>
       </c>
       <c r="K234" s="24">
@@ -14651,7 +14619,7 @@
       <c r="I235" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J235" s="97">
+      <c r="J235" s="78">
         <v>21.92</v>
       </c>
       <c r="K235" s="24">
@@ -14698,7 +14666,7 @@
       <c r="I236" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J236" s="97">
+      <c r="J236" s="78">
         <v>21.5</v>
       </c>
       <c r="K236" s="24">
@@ -14745,7 +14713,7 @@
       <c r="I237" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J237" s="97">
+      <c r="J237" s="78">
         <v>7.95</v>
       </c>
       <c r="K237" s="24">
@@ -14792,7 +14760,7 @@
       <c r="I238" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J238" s="97">
+      <c r="J238" s="78">
         <v>23.78</v>
       </c>
       <c r="K238" s="24">
@@ -14839,7 +14807,7 @@
       <c r="I239" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J239" s="97">
+      <c r="J239" s="78">
         <v>10.76</v>
       </c>
       <c r="K239" s="24">
@@ -14886,7 +14854,7 @@
       <c r="I240" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J240" s="97">
+      <c r="J240" s="78">
         <v>6.98</v>
       </c>
       <c r="K240" s="24">
@@ -14933,7 +14901,7 @@
       <c r="I241" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J241" s="97">
+      <c r="J241" s="78">
         <v>17.04</v>
       </c>
       <c r="K241" s="24">
@@ -14980,7 +14948,7 @@
       <c r="I242" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J242" s="97">
+      <c r="J242" s="78">
         <v>33.79</v>
       </c>
       <c r="K242" s="24">
@@ -15027,7 +14995,7 @@
       <c r="I243" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J243" s="97">
+      <c r="J243" s="78">
         <v>3.94</v>
       </c>
       <c r="K243" s="24">
@@ -15074,7 +15042,7 @@
       <c r="I244" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J244" s="97">
+      <c r="J244" s="78">
         <v>4.99</v>
       </c>
       <c r="K244" s="24">
@@ -15121,7 +15089,7 @@
       <c r="I245" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J245" s="97">
+      <c r="J245" s="78">
         <v>7.63</v>
       </c>
       <c r="K245" s="24">
@@ -15168,7 +15136,7 @@
       <c r="I246" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J246" s="97">
+      <c r="J246" s="78">
         <v>25.25</v>
       </c>
       <c r="K246" s="24">
@@ -15215,7 +15183,7 @@
       <c r="I247" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J247" s="97">
+      <c r="J247" s="78">
         <v>11.1</v>
       </c>
       <c r="K247" s="24">
@@ -15262,7 +15230,7 @@
       <c r="I248" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J248" s="97">
+      <c r="J248" s="78">
         <v>34.630000000000003</v>
       </c>
       <c r="K248" s="24">
@@ -15309,7 +15277,7 @@
       <c r="I249" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J249" s="97">
+      <c r="J249" s="78">
         <v>8.5</v>
       </c>
       <c r="K249" s="24">
@@ -15356,7 +15324,7 @@
       <c r="I250" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J250" s="97">
+      <c r="J250" s="78">
         <v>7.32</v>
       </c>
       <c r="K250" s="24">
@@ -15403,7 +15371,7 @@
       <c r="I251" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J251" s="97">
+      <c r="J251" s="78">
         <v>8.6199999999999992</v>
       </c>
       <c r="K251" s="24">
@@ -15450,7 +15418,7 @@
       <c r="I252" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J252" s="97">
+      <c r="J252" s="78">
         <v>4.42</v>
       </c>
       <c r="K252" s="24">
@@ -15497,7 +15465,7 @@
       <c r="I253" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J253" s="97">
+      <c r="J253" s="78">
         <v>7.55</v>
       </c>
       <c r="K253" s="24">
@@ -15544,7 +15512,7 @@
       <c r="I254" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J254" s="97">
+      <c r="J254" s="78">
         <v>10.18</v>
       </c>
       <c r="K254" s="24">
@@ -15591,7 +15559,7 @@
       <c r="I255" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J255" s="97">
+      <c r="J255" s="78">
         <v>5.33</v>
       </c>
       <c r="K255" s="24">
@@ -15638,7 +15606,7 @@
       <c r="I256" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J256" s="97">
+      <c r="J256" s="78">
         <v>8.1</v>
       </c>
       <c r="K256" s="24">
@@ -15685,7 +15653,7 @@
       <c r="I257" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J257" s="97">
+      <c r="J257" s="78">
         <v>5.48</v>
       </c>
       <c r="K257" s="24">
@@ -15732,7 +15700,7 @@
       <c r="I258" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J258" s="97">
+      <c r="J258" s="78">
         <v>7.82</v>
       </c>
       <c r="K258" s="24">
@@ -15779,7 +15747,7 @@
       <c r="I259" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J259" s="97">
+      <c r="J259" s="78">
         <v>34.78</v>
       </c>
       <c r="K259" s="24">
@@ -15826,7 +15794,7 @@
       <c r="I260" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J260" s="97">
+      <c r="J260" s="78">
         <v>8.2100000000000009</v>
       </c>
       <c r="K260" s="24">
@@ -15873,7 +15841,7 @@
       <c r="I261" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J261" s="97">
+      <c r="J261" s="78">
         <v>10.27</v>
       </c>
       <c r="K261" s="24">
@@ -15920,7 +15888,7 @@
       <c r="I262" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J262" s="97">
+      <c r="J262" s="78">
         <v>6.05</v>
       </c>
       <c r="K262" s="24">
@@ -15967,7 +15935,7 @@
       <c r="I263" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J263" s="97">
+      <c r="J263" s="78">
         <v>5.82</v>
       </c>
       <c r="K263" s="24">
@@ -16014,7 +15982,7 @@
       <c r="I264" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J264" s="97">
+      <c r="J264" s="78">
         <v>7.99</v>
       </c>
       <c r="K264" s="24">
@@ -16061,7 +16029,7 @@
       <c r="I265" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J265" s="97">
+      <c r="J265" s="78">
         <v>5.74</v>
       </c>
       <c r="K265" s="24">
@@ -16108,7 +16076,7 @@
       <c r="I266" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J266" s="97">
+      <c r="J266" s="78">
         <v>8.1999999999999993</v>
       </c>
       <c r="K266" s="24">
@@ -16155,7 +16123,7 @@
       <c r="I267" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J267" s="97">
+      <c r="J267" s="78">
         <v>44.03</v>
       </c>
       <c r="K267" s="24">
@@ -16202,7 +16170,7 @@
       <c r="I268" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J268" s="97">
+      <c r="J268" s="78">
         <v>6.33</v>
       </c>
       <c r="K268" s="24">
@@ -16249,7 +16217,7 @@
       <c r="I269" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J269" s="97">
+      <c r="J269" s="78">
         <v>10.98</v>
       </c>
       <c r="K269" s="24">
@@ -16296,7 +16264,7 @@
       <c r="I270" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J270" s="97">
+      <c r="J270" s="78">
         <v>5.77</v>
       </c>
       <c r="K270" s="24">
@@ -16343,7 +16311,7 @@
       <c r="I271" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J271" s="97">
+      <c r="J271" s="78">
         <v>31.71</v>
       </c>
       <c r="K271" s="24">
@@ -16390,7 +16358,7 @@
       <c r="I272" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J272" s="97">
+      <c r="J272" s="78">
         <v>11.44</v>
       </c>
       <c r="K272" s="24">
@@ -16437,7 +16405,7 @@
       <c r="I273" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J273" s="97">
+      <c r="J273" s="78">
         <v>22.12</v>
       </c>
       <c r="K273" s="24">
@@ -16484,7 +16452,7 @@
       <c r="I274" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J274" s="97">
+      <c r="J274" s="78">
         <v>7.31</v>
       </c>
       <c r="K274" s="24">
@@ -16531,7 +16499,7 @@
       <c r="I275" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J275" s="97">
+      <c r="J275" s="78">
         <v>39.72</v>
       </c>
       <c r="K275" s="24">
@@ -16578,7 +16546,7 @@
       <c r="I276" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J276" s="97">
+      <c r="J276" s="78">
         <v>12.64</v>
       </c>
       <c r="K276" s="24">
@@ -16625,7 +16593,7 @@
       <c r="I277" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J277" s="97">
+      <c r="J277" s="78">
         <v>6.83</v>
       </c>
       <c r="K277" s="24">
@@ -16672,7 +16640,7 @@
       <c r="I278" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J278" s="97">
+      <c r="J278" s="78">
         <v>7.77</v>
       </c>
       <c r="K278" s="24">
@@ -16719,7 +16687,7 @@
       <c r="I279" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J279" s="97">
+      <c r="J279" s="78">
         <v>6.49</v>
       </c>
       <c r="K279" s="24">
@@ -16766,7 +16734,7 @@
       <c r="I280" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J280" s="97">
+      <c r="J280" s="78">
         <v>15.9</v>
       </c>
       <c r="K280" s="24">
@@ -16813,7 +16781,7 @@
       <c r="I281" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J281" s="97">
+      <c r="J281" s="78">
         <v>9.99</v>
       </c>
       <c r="K281" s="24">
@@ -16860,7 +16828,7 @@
       <c r="I282" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J282" s="97">
+      <c r="J282" s="78">
         <v>6.39</v>
       </c>
       <c r="K282" s="24">
@@ -16907,7 +16875,7 @@
       <c r="I283" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J283" s="97">
+      <c r="J283" s="78">
         <v>13.67</v>
       </c>
       <c r="K283" s="24">
@@ -16954,7 +16922,7 @@
       <c r="I284" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J284" s="97">
+      <c r="J284" s="78">
         <v>20.34</v>
       </c>
       <c r="K284" s="24">
@@ -17001,7 +16969,7 @@
       <c r="I285" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J285" s="97">
+      <c r="J285" s="78">
         <v>10.23</v>
       </c>
       <c r="K285" s="24">
@@ -17048,7 +17016,7 @@
       <c r="I286" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J286" s="97">
+      <c r="J286" s="78">
         <v>14.86</v>
       </c>
       <c r="K286" s="24">
@@ -17095,7 +17063,7 @@
       <c r="I287" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J287" s="97">
+      <c r="J287" s="78">
         <v>11.15</v>
       </c>
       <c r="K287" s="24">
@@ -17142,7 +17110,7 @@
       <c r="I288" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J288" s="97">
+      <c r="J288" s="78">
         <v>8.9</v>
       </c>
       <c r="K288" s="24">
@@ -17189,7 +17157,7 @@
       <c r="I289" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J289" s="97">
+      <c r="J289" s="78">
         <v>9.02</v>
       </c>
       <c r="K289" s="24">
@@ -17236,7 +17204,7 @@
       <c r="I290" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J290" s="97">
+      <c r="J290" s="78">
         <v>9.84</v>
       </c>
       <c r="K290" s="24">
@@ -17283,7 +17251,7 @@
       <c r="I291" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J291" s="97">
+      <c r="J291" s="78">
         <v>5.97</v>
       </c>
       <c r="K291" s="24">
@@ -17330,7 +17298,7 @@
       <c r="I292" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J292" s="97">
+      <c r="J292" s="78">
         <v>5.6</v>
       </c>
       <c r="K292" s="24">
@@ -17377,7 +17345,7 @@
       <c r="I293" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J293" s="97">
+      <c r="J293" s="78">
         <v>10.65</v>
       </c>
       <c r="K293" s="24">
@@ -17424,7 +17392,7 @@
       <c r="I294" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J294" s="97">
+      <c r="J294" s="78">
         <v>7.28</v>
       </c>
       <c r="K294" s="24">
@@ -17471,7 +17439,7 @@
       <c r="I295" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J295" s="97">
+      <c r="J295" s="78">
         <v>8.56</v>
       </c>
       <c r="K295" s="24">
@@ -17518,7 +17486,7 @@
       <c r="I296" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J296" s="97">
+      <c r="J296" s="78">
         <v>10.130000000000001</v>
       </c>
       <c r="K296" s="24">
@@ -17565,7 +17533,7 @@
       <c r="I297" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J297" s="97">
+      <c r="J297" s="78">
         <v>7.58</v>
       </c>
       <c r="K297" s="24">
@@ -17612,7 +17580,7 @@
       <c r="I298" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J298" s="97">
+      <c r="J298" s="78">
         <v>7.52</v>
       </c>
       <c r="K298" s="24">
@@ -17659,7 +17627,7 @@
       <c r="I299" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J299" s="97">
+      <c r="J299" s="78">
         <v>8.65</v>
       </c>
       <c r="K299" s="24">
@@ -17706,7 +17674,7 @@
       <c r="I300" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J300" s="97">
+      <c r="J300" s="78">
         <v>8.0299999999999994</v>
       </c>
       <c r="K300" s="24">
@@ -17753,7 +17721,7 @@
       <c r="I301" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J301" s="97">
+      <c r="J301" s="78">
         <v>8.36</v>
       </c>
       <c r="K301" s="24">
@@ -17800,7 +17768,7 @@
       <c r="I302" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J302" s="97">
+      <c r="J302" s="78">
         <v>8.8699999999999992</v>
       </c>
       <c r="K302" s="24">
@@ -17847,7 +17815,7 @@
       <c r="I303" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J303" s="97">
+      <c r="J303" s="78">
         <v>9.4600000000000009</v>
       </c>
       <c r="K303" s="24">
@@ -17894,7 +17862,7 @@
       <c r="I304" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J304" s="97">
+      <c r="J304" s="78">
         <v>7.61</v>
       </c>
       <c r="K304" s="24">
@@ -17941,7 +17909,7 @@
       <c r="I305" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J305" s="97">
+      <c r="J305" s="78">
         <v>5.71</v>
       </c>
       <c r="K305" s="24">
@@ -17988,7 +17956,7 @@
       <c r="I306" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J306" s="97">
+      <c r="J306" s="78">
         <v>34.24</v>
       </c>
       <c r="K306" s="24">
@@ -18035,7 +18003,7 @@
       <c r="I307" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J307" s="97">
+      <c r="J307" s="78">
         <v>2994.98</v>
       </c>
       <c r="K307" s="24">
@@ -18082,7 +18050,7 @@
       <c r="I308" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J308" s="97">
+      <c r="J308" s="78">
         <v>161.43</v>
       </c>
       <c r="K308" s="24">
@@ -18129,7 +18097,7 @@
       <c r="I309" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J309" s="97">
+      <c r="J309" s="78">
         <v>207.13</v>
       </c>
       <c r="K309" s="24">
@@ -18176,7 +18144,7 @@
       <c r="I310" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J310" s="97">
+      <c r="J310" s="78">
         <v>17.7</v>
       </c>
       <c r="K310" s="24">
@@ -18223,7 +18191,7 @@
       <c r="I311" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J311" s="97">
+      <c r="J311" s="78">
         <v>13.49</v>
       </c>
       <c r="K311" s="24">
@@ -18270,7 +18238,7 @@
       <c r="I312" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J312" s="97">
+      <c r="J312" s="78">
         <v>294.33999999999997</v>
       </c>
       <c r="K312" s="24">
@@ -18317,7 +18285,7 @@
       <c r="I313" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J313" s="97">
+      <c r="J313" s="78">
         <v>13.9</v>
       </c>
       <c r="K313" s="24">
@@ -18364,7 +18332,7 @@
       <c r="I314" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J314" s="97">
+      <c r="J314" s="78">
         <v>6.86</v>
       </c>
       <c r="K314" s="24">
@@ -18411,7 +18379,7 @@
       <c r="I315" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J315" s="97">
+      <c r="J315" s="78">
         <v>15.95</v>
       </c>
       <c r="K315" s="24">
@@ -18458,7 +18426,7 @@
       <c r="I316" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J316" s="97">
+      <c r="J316" s="78">
         <v>29.02</v>
       </c>
       <c r="K316" s="24">
@@ -18505,7 +18473,7 @@
       <c r="I317" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J317" s="97">
+      <c r="J317" s="78">
         <v>15.31</v>
       </c>
       <c r="K317" s="24">
@@ -18552,7 +18520,7 @@
       <c r="I318" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J318" s="97">
+      <c r="J318" s="78">
         <v>13.94</v>
       </c>
       <c r="K318" s="24">
@@ -18599,7 +18567,7 @@
       <c r="I319" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J319" s="97">
+      <c r="J319" s="78">
         <v>7.48</v>
       </c>
       <c r="K319" s="24">
@@ -18646,7 +18614,7 @@
       <c r="I320" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J320" s="97">
+      <c r="J320" s="78">
         <v>7.45</v>
       </c>
       <c r="K320" s="24">
@@ -18693,7 +18661,7 @@
       <c r="I321" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J321" s="97">
+      <c r="J321" s="78">
         <v>7.35</v>
       </c>
       <c r="K321" s="24">
@@ -18740,7 +18708,7 @@
       <c r="I322" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J322" s="97">
+      <c r="J322" s="78">
         <v>5.6</v>
       </c>
       <c r="K322" s="24">
@@ -18787,7 +18755,7 @@
       <c r="I323" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J323" s="97">
+      <c r="J323" s="78">
         <v>6.26</v>
       </c>
       <c r="K323" s="24">
@@ -18834,7 +18802,7 @@
       <c r="I324" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J324" s="97">
+      <c r="J324" s="78">
         <v>6.54</v>
       </c>
       <c r="K324" s="24">
@@ -18881,7 +18849,7 @@
       <c r="I325" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J325" s="97">
+      <c r="J325" s="78">
         <v>9.06</v>
       </c>
       <c r="K325" s="24">
@@ -18928,7 +18896,7 @@
       <c r="I326" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J326" s="97">
+      <c r="J326" s="78">
         <v>18.84</v>
       </c>
       <c r="K326" s="24">
@@ -18975,7 +18943,7 @@
       <c r="I327" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J327" s="97">
+      <c r="J327" s="78">
         <v>32.53</v>
       </c>
       <c r="K327" s="24">
@@ -19022,7 +18990,7 @@
       <c r="I328" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J328" s="97">
+      <c r="J328" s="78">
         <v>12.08</v>
       </c>
       <c r="K328" s="24">
@@ -19069,7 +19037,7 @@
       <c r="I329" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J329" s="97">
+      <c r="J329" s="78">
         <v>25.95</v>
       </c>
       <c r="K329" s="24">
@@ -19116,7 +19084,7 @@
       <c r="I330" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J330" s="97">
+      <c r="J330" s="78">
         <v>12.71</v>
       </c>
       <c r="K330" s="24">
@@ -19163,7 +19131,7 @@
       <c r="I331" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J331" s="97">
+      <c r="J331" s="78">
         <v>16.87</v>
       </c>
       <c r="K331" s="24">
@@ -19210,7 +19178,7 @@
       <c r="I332" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J332" s="97">
+      <c r="J332" s="78">
         <v>8.5</v>
       </c>
       <c r="K332" s="24">
@@ -19257,7 +19225,7 @@
       <c r="I333" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J333" s="97">
+      <c r="J333" s="78">
         <v>10.97</v>
       </c>
       <c r="K333" s="24">
@@ -19304,7 +19272,7 @@
       <c r="I334" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J334" s="97">
+      <c r="J334" s="78">
         <v>8</v>
       </c>
       <c r="K334" s="24">
@@ -19351,7 +19319,7 @@
       <c r="I335" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J335" s="97">
+      <c r="J335" s="78">
         <v>11.94</v>
       </c>
       <c r="K335" s="24">
@@ -19398,7 +19366,7 @@
       <c r="I336" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J336" s="97">
+      <c r="J336" s="78">
         <v>6.94</v>
       </c>
       <c r="K336" s="24">
@@ -19445,7 +19413,7 @@
       <c r="I337" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J337" s="97">
+      <c r="J337" s="78">
         <v>10.73</v>
       </c>
       <c r="K337" s="24">
@@ -19492,7 +19460,7 @@
       <c r="I338" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J338" s="97">
+      <c r="J338" s="78">
         <v>27.25</v>
       </c>
       <c r="K338" s="24">
@@ -19539,7 +19507,7 @@
       <c r="I339" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J339" s="97">
+      <c r="J339" s="78">
         <v>41.7</v>
       </c>
       <c r="K339" s="24">
@@ -19586,7 +19554,7 @@
       <c r="I340" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J340" s="97">
+      <c r="J340" s="78">
         <v>23.74</v>
       </c>
       <c r="K340" s="24">
@@ -19633,7 +19601,7 @@
       <c r="I341" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J341" s="97">
+      <c r="J341" s="78">
         <v>10.029999999999999</v>
       </c>
       <c r="K341" s="24">
@@ -19680,7 +19648,7 @@
       <c r="I342" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J342" s="97">
+      <c r="J342" s="78">
         <v>16.39</v>
       </c>
       <c r="K342" s="24">
@@ -19727,7 +19695,7 @@
       <c r="I343" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J343" s="97">
+      <c r="J343" s="78">
         <v>42.16</v>
       </c>
       <c r="K343" s="24">
@@ -19774,7 +19742,7 @@
       <c r="I344" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J344" s="97">
+      <c r="J344" s="78">
         <v>19.78</v>
       </c>
       <c r="K344" s="24">
@@ -19821,7 +19789,7 @@
       <c r="I345" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J345" s="97">
+      <c r="J345" s="78">
         <v>10.050000000000001</v>
       </c>
       <c r="K345" s="24">
@@ -19868,7 +19836,7 @@
       <c r="I346" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J346" s="97">
+      <c r="J346" s="78">
         <v>16.11</v>
       </c>
       <c r="K346" s="24">
@@ -19915,7 +19883,7 @@
       <c r="I347" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J347" s="97">
+      <c r="J347" s="78">
         <v>14.26</v>
       </c>
       <c r="K347" s="24">
@@ -19962,7 +19930,7 @@
       <c r="I348" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J348" s="97">
+      <c r="J348" s="78">
         <v>52.94</v>
       </c>
       <c r="K348" s="24">
@@ -20009,7 +19977,7 @@
       <c r="I349" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J349" s="97">
+      <c r="J349" s="78">
         <v>209.24</v>
       </c>
       <c r="K349" s="24">
@@ -20056,7 +20024,7 @@
       <c r="I350" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J350" s="97">
+      <c r="J350" s="78">
         <v>9.98</v>
       </c>
       <c r="K350" s="24">
@@ -20103,7 +20071,7 @@
       <c r="I351" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J351" s="97">
+      <c r="J351" s="78">
         <v>6.64</v>
       </c>
       <c r="K351" s="24">
@@ -20150,7 +20118,7 @@
       <c r="I352" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J352" s="97">
+      <c r="J352" s="78">
         <v>6.62</v>
       </c>
       <c r="K352" s="24">
@@ -20197,7 +20165,7 @@
       <c r="I353" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J353" s="97">
+      <c r="J353" s="78">
         <v>3.61</v>
       </c>
       <c r="K353" s="24">
@@ -20244,7 +20212,7 @@
       <c r="I354" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J354" s="97">
+      <c r="J354" s="78">
         <v>9.23</v>
       </c>
       <c r="K354" s="24">
@@ -20291,7 +20259,7 @@
       <c r="I355" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J355" s="97">
+      <c r="J355" s="78">
         <v>7.32</v>
       </c>
       <c r="K355" s="24">
@@ -20341,7 +20309,7 @@
       <c r="I356" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J356" s="97">
+      <c r="J356" s="78">
         <v>6.17</v>
       </c>
       <c r="K356" s="24">
@@ -20392,7 +20360,7 @@
       <c r="I357" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J357" s="97">
+      <c r="J357" s="78">
         <v>7.45</v>
       </c>
       <c r="K357" s="24">
@@ -20439,7 +20407,7 @@
       <c r="I358" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J358" s="97">
+      <c r="J358" s="78">
         <v>56.99</v>
       </c>
       <c r="K358" s="24">
@@ -20486,7 +20454,7 @@
       <c r="I359" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J359" s="97">
+      <c r="J359" s="78">
         <v>13.24</v>
       </c>
       <c r="K359" s="24">
@@ -20533,7 +20501,7 @@
       <c r="I360" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J360" s="97">
+      <c r="J360" s="78">
         <v>12.48</v>
       </c>
       <c r="K360" s="24">
@@ -20580,7 +20548,7 @@
       <c r="I361" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J361" s="97">
+      <c r="J361" s="78">
         <v>8.6199999999999992</v>
       </c>
       <c r="K361" s="24">
@@ -20627,7 +20595,7 @@
       <c r="I362" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J362" s="97">
+      <c r="J362" s="78">
         <v>18.3</v>
       </c>
       <c r="K362" s="24">
@@ -20674,7 +20642,7 @@
       <c r="I363" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J363" s="97">
+      <c r="J363" s="78">
         <v>6.07</v>
       </c>
       <c r="K363" s="24">
@@ -20721,7 +20689,7 @@
       <c r="I364" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J364" s="97">
+      <c r="J364" s="78">
         <v>46.42</v>
       </c>
       <c r="K364" s="24">
@@ -20768,7 +20736,7 @@
       <c r="I365" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J365" s="97">
+      <c r="J365" s="78">
         <v>18.04</v>
       </c>
       <c r="K365" s="24">
@@ -20815,7 +20783,7 @@
       <c r="I366" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J366" s="97">
+      <c r="J366" s="78">
         <v>7.44</v>
       </c>
       <c r="K366" s="24">
@@ -20862,7 +20830,7 @@
       <c r="I367" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J367" s="97">
+      <c r="J367" s="78">
         <v>9.2100000000000009</v>
       </c>
       <c r="K367" s="24">
@@ -20909,7 +20877,7 @@
       <c r="I368" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J368" s="97">
+      <c r="J368" s="78">
         <v>6.24</v>
       </c>
       <c r="K368" s="24">
@@ -20956,7 +20924,7 @@
       <c r="I369" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J369" s="97">
+      <c r="J369" s="78">
         <v>40.549999999999997</v>
       </c>
       <c r="K369" s="24">
@@ -21003,7 +20971,7 @@
       <c r="I370" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J370" s="97">
+      <c r="J370" s="78">
         <v>8.26</v>
       </c>
       <c r="K370" s="24">
@@ -21050,7 +21018,7 @@
       <c r="I371" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J371" s="97">
+      <c r="J371" s="78">
         <v>7.24</v>
       </c>
       <c r="K371" s="24">
@@ -21097,7 +21065,7 @@
       <c r="I372" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J372" s="97">
+      <c r="J372" s="78">
         <v>6.26</v>
       </c>
       <c r="K372" s="24">
@@ -21144,7 +21112,7 @@
       <c r="I373" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J373" s="97">
+      <c r="J373" s="78">
         <v>7.07</v>
       </c>
       <c r="K373" s="24">
@@ -21191,7 +21159,7 @@
       <c r="I374" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J374" s="97">
+      <c r="J374" s="78">
         <v>4.1900000000000004</v>
       </c>
       <c r="K374" s="24">
@@ -21238,7 +21206,7 @@
       <c r="I375" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J375" s="97">
+      <c r="J375" s="78">
         <v>7.85</v>
       </c>
       <c r="K375" s="24">
@@ -21285,7 +21253,7 @@
       <c r="I376" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J376" s="97">
+      <c r="J376" s="78">
         <v>6.17</v>
       </c>
       <c r="K376" s="24">
@@ -21332,7 +21300,7 @@
       <c r="I377" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J377" s="97">
+      <c r="J377" s="78">
         <v>7.15</v>
       </c>
       <c r="K377" s="24">
@@ -21379,7 +21347,7 @@
       <c r="I378" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J378" s="97">
+      <c r="J378" s="78">
         <v>5.81</v>
       </c>
       <c r="K378" s="24">
@@ -21426,7 +21394,7 @@
       <c r="I379" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J379" s="97">
+      <c r="J379" s="78">
         <v>7.44</v>
       </c>
       <c r="K379" s="24">
@@ -21473,7 +21441,7 @@
       <c r="I380" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J380" s="97">
+      <c r="J380" s="78">
         <v>3.51</v>
       </c>
       <c r="K380" s="24">
@@ -21520,7 +21488,7 @@
       <c r="I381" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J381" s="97">
+      <c r="J381" s="78">
         <v>11.1</v>
       </c>
       <c r="K381" s="24">
@@ -21567,7 +21535,7 @@
       <c r="I382" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J382" s="97">
+      <c r="J382" s="78">
         <v>4.4000000000000004</v>
       </c>
       <c r="K382" s="24">
@@ -21614,7 +21582,7 @@
       <c r="I383" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J383" s="97">
+      <c r="J383" s="78">
         <v>5.89</v>
       </c>
       <c r="K383" s="24">
@@ -21661,7 +21629,7 @@
       <c r="I384" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J384" s="97">
+      <c r="J384" s="78">
         <v>54.09</v>
       </c>
       <c r="K384" s="24">
@@ -21708,7 +21676,7 @@
       <c r="I385" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J385" s="97">
+      <c r="J385" s="78">
         <v>9.9</v>
       </c>
       <c r="K385" s="24">
@@ -21755,7 +21723,7 @@
       <c r="I386" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J386" s="97">
+      <c r="J386" s="78">
         <v>5.82</v>
       </c>
       <c r="K386" s="24">
@@ -21802,7 +21770,7 @@
       <c r="I387" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J387" s="97">
+      <c r="J387" s="78">
         <v>8.56</v>
       </c>
       <c r="K387" s="24">
@@ -21849,7 +21817,7 @@
       <c r="I388" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J388" s="97">
+      <c r="J388" s="78">
         <v>13.4</v>
       </c>
       <c r="K388" s="24">
@@ -21895,7 +21863,7 @@
       <c r="I389" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J389" s="97">
+      <c r="J389" s="78">
         <v>29.58</v>
       </c>
       <c r="K389" s="24">
@@ -21942,7 +21910,7 @@
       <c r="I390" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J390" s="97">
+      <c r="J390" s="78">
         <v>5.67</v>
       </c>
       <c r="K390" s="24">
@@ -21989,7 +21957,7 @@
       <c r="I391" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J391" s="97">
+      <c r="J391" s="78">
         <v>7.08</v>
       </c>
       <c r="K391" s="24">
@@ -22036,7 +22004,7 @@
       <c r="I392" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J392" s="97">
+      <c r="J392" s="78">
         <v>9.18</v>
       </c>
       <c r="K392" s="24">
@@ -22083,7 +22051,7 @@
       <c r="I393" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J393" s="97">
+      <c r="J393" s="78">
         <v>5.9</v>
       </c>
       <c r="K393" s="24">
@@ -22130,7 +22098,7 @@
       <c r="I394" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J394" s="97">
+      <c r="J394" s="78">
         <v>5.72</v>
       </c>
       <c r="K394" s="24">
@@ -22177,7 +22145,7 @@
       <c r="I395" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J395" s="97">
+      <c r="J395" s="78">
         <v>12.36</v>
       </c>
       <c r="K395" s="24">
@@ -22224,7 +22192,7 @@
       <c r="I396" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J396" s="97">
+      <c r="J396" s="78">
         <v>7.15</v>
       </c>
       <c r="K396" s="24">
@@ -22271,7 +22239,7 @@
       <c r="I397" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J397" s="97">
+      <c r="J397" s="78">
         <v>6.27</v>
       </c>
       <c r="K397" s="24">
@@ -22318,7 +22286,7 @@
       <c r="I398" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J398" s="97">
+      <c r="J398" s="78">
         <v>8.76</v>
       </c>
       <c r="K398" s="24">
@@ -22365,7 +22333,7 @@
       <c r="I399" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J399" s="97">
+      <c r="J399" s="78">
         <v>22.05</v>
       </c>
       <c r="K399" s="24">
@@ -22412,7 +22380,7 @@
       <c r="I400" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J400" s="97">
+      <c r="J400" s="78">
         <v>18.95</v>
       </c>
       <c r="K400" s="24">
@@ -22459,7 +22427,7 @@
       <c r="I401" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J401" s="97">
+      <c r="J401" s="78">
         <v>13.27</v>
       </c>
       <c r="K401" s="24">
@@ -22506,7 +22474,7 @@
       <c r="I402" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J402" s="97">
+      <c r="J402" s="78">
         <v>6.42</v>
       </c>
       <c r="K402" s="24">
@@ -22553,7 +22521,7 @@
       <c r="I403" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J403" s="97">
+      <c r="J403" s="78">
         <v>9.75</v>
       </c>
       <c r="K403" s="24">
@@ -22600,7 +22568,7 @@
       <c r="I404" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J404" s="97">
+      <c r="J404" s="78">
         <v>8.5</v>
       </c>
       <c r="K404" s="24">
@@ -22647,7 +22615,7 @@
       <c r="I405" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J405" s="97">
+      <c r="J405" s="78">
         <v>10.93</v>
       </c>
       <c r="K405" s="24">
@@ -22694,7 +22662,7 @@
       <c r="I406" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J406" s="97">
+      <c r="J406" s="78">
         <v>15.75</v>
       </c>
       <c r="K406" s="24">
@@ -22741,7 +22709,7 @@
       <c r="I407" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J407" s="97">
+      <c r="J407" s="78">
         <v>14.01</v>
       </c>
       <c r="K407" s="24">
@@ -22788,7 +22756,7 @@
       <c r="I408" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J408" s="97">
+      <c r="J408" s="78">
         <v>7.56</v>
       </c>
       <c r="K408" s="24">
@@ -22835,7 +22803,7 @@
       <c r="I409" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J409" s="97">
+      <c r="J409" s="78">
         <v>6.86</v>
       </c>
       <c r="K409" s="24">
@@ -22882,7 +22850,7 @@
       <c r="I410" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J410" s="97">
+      <c r="J410" s="78">
         <v>6.79</v>
       </c>
       <c r="K410" s="24">
@@ -22929,7 +22897,7 @@
       <c r="I411" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J411" s="97">
+      <c r="J411" s="78">
         <v>6.71</v>
       </c>
       <c r="K411" s="24">
@@ -22976,7 +22944,7 @@
       <c r="I412" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J412" s="97">
+      <c r="J412" s="78">
         <v>50.84</v>
       </c>
       <c r="K412" s="24">
@@ -23023,7 +22991,7 @@
       <c r="I413" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J413" s="97">
+      <c r="J413" s="78">
         <v>14.34</v>
       </c>
       <c r="K413" s="24">
@@ -23070,7 +23038,7 @@
       <c r="I414" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J414" s="97">
+      <c r="J414" s="78">
         <v>22.36</v>
       </c>
       <c r="K414" s="24">
@@ -23117,7 +23085,7 @@
       <c r="I415" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J415" s="97">
+      <c r="J415" s="78">
         <v>11.83</v>
       </c>
       <c r="K415" s="24">
@@ -23164,7 +23132,7 @@
       <c r="I416" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J416" s="97">
+      <c r="J416" s="78">
         <v>10.99</v>
       </c>
       <c r="K416" s="24">
@@ -23211,7 +23179,7 @@
       <c r="I417" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J417" s="97">
+      <c r="J417" s="78">
         <v>20.64</v>
       </c>
       <c r="K417" s="24">
@@ -23258,7 +23226,7 @@
       <c r="I418" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J418" s="97">
+      <c r="J418" s="78">
         <v>30.6</v>
       </c>
       <c r="K418" s="24">
@@ -23305,7 +23273,7 @@
       <c r="I419" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J419" s="97">
+      <c r="J419" s="78">
         <v>9.3800000000000008</v>
       </c>
       <c r="K419" s="24">
@@ -23352,7 +23320,7 @@
       <c r="I420" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J420" s="97">
+      <c r="J420" s="78">
         <v>8.64</v>
       </c>
       <c r="K420" s="24">
@@ -23399,7 +23367,7 @@
       <c r="I421" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J421" s="97">
+      <c r="J421" s="78">
         <v>14.46</v>
       </c>
       <c r="K421" s="24">
@@ -23446,7 +23414,7 @@
       <c r="I422" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J422" s="97">
+      <c r="J422" s="78">
         <v>8.4</v>
       </c>
       <c r="K422" s="24">
@@ -23493,7 +23461,7 @@
       <c r="I423" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J423" s="97">
+      <c r="J423" s="78">
         <v>15.19</v>
       </c>
       <c r="K423" s="24">
@@ -23540,7 +23508,7 @@
       <c r="I424" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J424" s="97">
+      <c r="J424" s="78">
         <v>10.86</v>
       </c>
       <c r="K424" s="24">
@@ -23587,7 +23555,7 @@
       <c r="I425" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J425" s="97">
+      <c r="J425" s="78">
         <v>12.55</v>
       </c>
       <c r="K425" s="24">
@@ -23634,7 +23602,7 @@
       <c r="I426" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J426" s="97">
+      <c r="J426" s="78">
         <v>9.7899999999999991</v>
       </c>
       <c r="K426" s="24">
@@ -23681,7 +23649,7 @@
       <c r="I427" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J427" s="97">
+      <c r="J427" s="78">
         <v>7.33</v>
       </c>
       <c r="K427" s="24">
@@ -23728,7 +23696,7 @@
       <c r="I428" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J428" s="97">
+      <c r="J428" s="78">
         <v>53.91</v>
       </c>
       <c r="K428" s="24">
@@ -23775,7 +23743,7 @@
       <c r="I429" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J429" s="97">
+      <c r="J429" s="78">
         <v>8.52</v>
       </c>
       <c r="K429" s="24">
@@ -23822,7 +23790,7 @@
       <c r="I430" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J430" s="97">
+      <c r="J430" s="78">
         <v>10.24</v>
       </c>
       <c r="K430" s="24">
@@ -23869,7 +23837,7 @@
       <c r="I431" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J431" s="97">
+      <c r="J431" s="78">
         <v>14.12</v>
       </c>
       <c r="K431" s="24">
@@ -23916,7 +23884,7 @@
       <c r="I432" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J432" s="97">
+      <c r="J432" s="78">
         <v>12.93</v>
       </c>
       <c r="K432" s="24">
@@ -23963,7 +23931,7 @@
       <c r="I433" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J433" s="97">
+      <c r="J433" s="78">
         <v>9.81</v>
       </c>
       <c r="K433" s="24">
@@ -24010,7 +23978,7 @@
       <c r="I434" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J434" s="97">
+      <c r="J434" s="78">
         <v>7.14</v>
       </c>
       <c r="K434" s="24">
@@ -24057,7 +24025,7 @@
       <c r="I435" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J435" s="97">
+      <c r="J435" s="78">
         <v>6.96</v>
       </c>
       <c r="K435" s="24">
@@ -24104,7 +24072,7 @@
       <c r="I436" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J436" s="97">
+      <c r="J436" s="78">
         <v>5.4</v>
       </c>
       <c r="K436" s="24">
@@ -24151,7 +24119,7 @@
       <c r="I437" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J437" s="97">
+      <c r="J437" s="78">
         <v>21.77</v>
       </c>
       <c r="K437" s="24">
@@ -24198,7 +24166,7 @@
       <c r="I438" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J438" s="97">
+      <c r="J438" s="78">
         <v>9.18</v>
       </c>
       <c r="K438" s="24">
@@ -24245,7 +24213,7 @@
       <c r="I439" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J439" s="97">
+      <c r="J439" s="78">
         <v>7.62</v>
       </c>
       <c r="K439" s="24">
@@ -24292,7 +24260,7 @@
       <c r="I440" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J440" s="97">
+      <c r="J440" s="78">
         <v>7.41</v>
       </c>
       <c r="K440" s="24">
@@ -24339,7 +24307,7 @@
       <c r="I441" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J441" s="97">
+      <c r="J441" s="78">
         <v>13.09</v>
       </c>
       <c r="K441" s="24">
@@ -24386,7 +24354,7 @@
       <c r="I442" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J442" s="97">
+      <c r="J442" s="78">
         <v>20.55</v>
       </c>
       <c r="K442" s="24">
@@ -24433,7 +24401,7 @@
       <c r="I443" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J443" s="97">
+      <c r="J443" s="78">
         <v>5.68</v>
       </c>
       <c r="K443" s="24">
@@ -24480,7 +24448,7 @@
       <c r="I444" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J444" s="97">
+      <c r="J444" s="78">
         <v>15.34</v>
       </c>
       <c r="K444" s="24">
@@ -24527,7 +24495,7 @@
       <c r="I445" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J445" s="97">
+      <c r="J445" s="78">
         <v>7.37</v>
       </c>
       <c r="K445" s="24">
@@ -24574,7 +24542,7 @@
       <c r="I446" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J446" s="97">
+      <c r="J446" s="78">
         <v>13.13</v>
       </c>
       <c r="K446" s="24">
@@ -24621,7 +24589,7 @@
       <c r="I447" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J447" s="97">
+      <c r="J447" s="78">
         <v>4.3</v>
       </c>
       <c r="K447" s="24">
@@ -24668,7 +24636,7 @@
       <c r="I448" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J448" s="97">
+      <c r="J448" s="78">
         <v>4.5999999999999996</v>
       </c>
       <c r="K448" s="24">
@@ -24715,7 +24683,7 @@
       <c r="I449" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J449" s="97">
+      <c r="J449" s="78">
         <v>44.05</v>
       </c>
       <c r="K449" s="24">
@@ -24762,7 +24730,7 @@
       <c r="I450" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J450" s="97">
+      <c r="J450" s="78">
         <v>16.45</v>
       </c>
       <c r="K450" s="24">
@@ -24809,7 +24777,7 @@
       <c r="I451" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J451" s="97">
+      <c r="J451" s="78">
         <v>39.32</v>
       </c>
       <c r="K451" s="24">
@@ -24856,7 +24824,7 @@
       <c r="I452" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J452" s="97">
+      <c r="J452" s="78">
         <v>17.55</v>
       </c>
       <c r="K452" s="24">
@@ -24903,7 +24871,7 @@
       <c r="I453" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J453" s="97">
+      <c r="J453" s="78">
         <v>13.04</v>
       </c>
       <c r="K453" s="24">
@@ -24950,7 +24918,7 @@
       <c r="I454" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J454" s="97">
+      <c r="J454" s="78">
         <v>11.67</v>
       </c>
       <c r="K454" s="24">
@@ -24997,7 +24965,7 @@
       <c r="I455" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J455" s="97">
+      <c r="J455" s="78">
         <v>15.34</v>
       </c>
       <c r="K455" s="24">
@@ -25044,7 +25012,7 @@
       <c r="I456" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J456" s="97">
+      <c r="J456" s="78">
         <v>14.06</v>
       </c>
       <c r="K456" s="24">
@@ -25091,7 +25059,7 @@
       <c r="I457" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J457" s="97">
+      <c r="J457" s="78">
         <v>47.22</v>
       </c>
       <c r="K457" s="24">
@@ -25138,7 +25106,7 @@
       <c r="I458" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J458" s="97">
+      <c r="J458" s="78">
         <v>27.67</v>
       </c>
       <c r="K458" s="24">
@@ -25185,7 +25153,7 @@
       <c r="I459" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J459" s="97">
+      <c r="J459" s="78">
         <v>20.239999999999998</v>
       </c>
       <c r="K459" s="24">
@@ -25232,7 +25200,7 @@
       <c r="I460" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J460" s="97">
+      <c r="J460" s="78">
         <v>6.36</v>
       </c>
       <c r="K460" s="24">
@@ -25279,7 +25247,7 @@
       <c r="I461" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J461" s="97">
+      <c r="J461" s="78">
         <v>5.49</v>
       </c>
       <c r="K461" s="24">
@@ -25326,7 +25294,7 @@
       <c r="I462" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J462" s="97">
+      <c r="J462" s="78">
         <v>6.94</v>
       </c>
       <c r="K462" s="24">
@@ -25373,7 +25341,7 @@
       <c r="I463" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J463" s="97">
+      <c r="J463" s="78">
         <v>5.6</v>
       </c>
       <c r="K463" s="24">
@@ -25420,7 +25388,7 @@
       <c r="I464" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J464" s="97">
+      <c r="J464" s="78">
         <v>4.9000000000000004</v>
       </c>
       <c r="K464" s="24">
@@ -25467,7 +25435,7 @@
       <c r="I465" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J465" s="97">
+      <c r="J465" s="78">
         <v>10.65</v>
       </c>
       <c r="K465" s="24">
@@ -25514,7 +25482,7 @@
       <c r="I466" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J466" s="97">
+      <c r="J466" s="78">
         <v>7.7</v>
       </c>
       <c r="K466" s="24">
@@ -25561,7 +25529,7 @@
       <c r="I467" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J467" s="97">
+      <c r="J467" s="78">
         <v>6.7</v>
       </c>
       <c r="K467" s="24">
@@ -25608,7 +25576,7 @@
       <c r="I468" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J468" s="97">
+      <c r="J468" s="78">
         <v>8.15</v>
       </c>
       <c r="K468" s="24">
@@ -25655,7 +25623,7 @@
       <c r="I469" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J469" s="97">
+      <c r="J469" s="78">
         <v>6.54</v>
       </c>
       <c r="K469" s="24">
@@ -25702,7 +25670,7 @@
       <c r="I470" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J470" s="97">
+      <c r="J470" s="78">
         <v>4.66</v>
       </c>
       <c r="K470" s="24">
@@ -25749,7 +25717,7 @@
       <c r="I471" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J471" s="97">
+      <c r="J471" s="78">
         <v>8.76</v>
       </c>
       <c r="K471" s="24">
@@ -25796,7 +25764,7 @@
       <c r="I472" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J472" s="97">
+      <c r="J472" s="78">
         <v>3.87</v>
       </c>
       <c r="K472" s="24">
@@ -25843,7 +25811,7 @@
       <c r="I473" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J473" s="97">
+      <c r="J473" s="78">
         <v>6.32</v>
       </c>
       <c r="K473" s="24">
@@ -25890,7 +25858,7 @@
       <c r="I474" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J474" s="97">
+      <c r="J474" s="78">
         <v>2.95</v>
       </c>
       <c r="K474" s="24">
@@ -25937,7 +25905,7 @@
       <c r="I475" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J475" s="97">
+      <c r="J475" s="78">
         <v>6.02</v>
       </c>
       <c r="K475" s="24">
@@ -25984,7 +25952,7 @@
       <c r="I476" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J476" s="97">
+      <c r="J476" s="78">
         <v>5.36</v>
       </c>
       <c r="K476" s="24">
@@ -26031,7 +25999,7 @@
       <c r="I477" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J477" s="97">
+      <c r="J477" s="78">
         <v>6.22</v>
       </c>
       <c r="K477" s="24">
@@ -26078,7 +26046,7 @@
       <c r="I478" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J478" s="97">
+      <c r="J478" s="78">
         <v>5.77</v>
       </c>
       <c r="K478" s="24">
@@ -26125,7 +26093,7 @@
       <c r="I479" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J479" s="97">
+      <c r="J479" s="78">
         <v>4.38</v>
       </c>
       <c r="K479" s="24">
@@ -26172,7 +26140,7 @@
       <c r="I480" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J480" s="97">
+      <c r="J480" s="78">
         <v>5.24</v>
       </c>
       <c r="K480" s="24">
@@ -26219,7 +26187,7 @@
       <c r="I481" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J481" s="97">
+      <c r="J481" s="78">
         <v>7.2</v>
       </c>
       <c r="K481" s="24">
@@ -26266,7 +26234,7 @@
       <c r="I482" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J482" s="97">
+      <c r="J482" s="78">
         <v>4.2</v>
       </c>
       <c r="K482" s="24">
@@ -26313,7 +26281,7 @@
       <c r="I483" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J483" s="97">
+      <c r="J483" s="78">
         <v>5.32</v>
       </c>
       <c r="K483" s="24">
@@ -26360,7 +26328,7 @@
       <c r="I484" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J484" s="97">
+      <c r="J484" s="78">
         <v>11.81</v>
       </c>
       <c r="K484" s="24">
@@ -26407,7 +26375,7 @@
       <c r="I485" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J485" s="97">
+      <c r="J485" s="78">
         <v>4.3899999999999997</v>
       </c>
       <c r="K485" s="24">
@@ -26454,7 +26422,7 @@
       <c r="I486" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J486" s="97">
+      <c r="J486" s="78">
         <v>75.61</v>
       </c>
       <c r="K486" s="24">
@@ -26501,7 +26469,7 @@
       <c r="I487" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J487" s="97">
+      <c r="J487" s="78">
         <v>12.22</v>
       </c>
       <c r="K487" s="24">
@@ -26548,7 +26516,7 @@
       <c r="I488" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J488" s="97">
+      <c r="J488" s="78">
         <v>12.29</v>
       </c>
       <c r="K488" s="24">
@@ -26595,7 +26563,7 @@
       <c r="I489" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J489" s="97">
+      <c r="J489" s="78">
         <v>19.350000000000001</v>
       </c>
       <c r="K489" s="24">
@@ -26642,7 +26610,7 @@
       <c r="I490" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J490" s="97">
+      <c r="J490" s="78">
         <v>5.0999999999999996</v>
       </c>
       <c r="K490" s="24">
@@ -26689,7 +26657,7 @@
       <c r="I491" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J491" s="97">
+      <c r="J491" s="78">
         <v>83.81</v>
       </c>
       <c r="K491" s="24">
@@ -26736,7 +26704,7 @@
       <c r="I492" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J492" s="97">
+      <c r="J492" s="78">
         <v>7.13</v>
       </c>
       <c r="K492" s="24">
@@ -26783,7 +26751,7 @@
       <c r="I493" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J493" s="97">
+      <c r="J493" s="78">
         <v>7.88</v>
       </c>
       <c r="K493" s="24">
@@ -26830,7 +26798,7 @@
       <c r="I494" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J494" s="97">
+      <c r="J494" s="78">
         <v>50.32</v>
       </c>
       <c r="K494" s="24">
@@ -26877,7 +26845,7 @@
       <c r="I495" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J495" s="97">
+      <c r="J495" s="78">
         <v>17.010000000000002</v>
       </c>
       <c r="K495" s="24">
@@ -26924,7 +26892,7 @@
       <c r="I496" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J496" s="97">
+      <c r="J496" s="78">
         <v>11.73</v>
       </c>
       <c r="K496" s="24">
@@ -26971,7 +26939,7 @@
       <c r="I497" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J497" s="97">
+      <c r="J497" s="78">
         <v>4.9000000000000004</v>
       </c>
       <c r="K497" s="24">
@@ -27018,7 +26986,7 @@
       <c r="I498" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J498" s="97">
+      <c r="J498" s="78">
         <v>6.68</v>
       </c>
       <c r="K498" s="24">
@@ -27065,7 +27033,7 @@
       <c r="I499" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J499" s="97">
+      <c r="J499" s="78">
         <v>5.15</v>
       </c>
       <c r="K499" s="24">
@@ -27112,7 +27080,7 @@
       <c r="I500" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J500" s="97">
+      <c r="J500" s="78">
         <v>9.39</v>
       </c>
       <c r="K500" s="24">
@@ -27159,7 +27127,7 @@
       <c r="I501" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J501" s="97">
+      <c r="J501" s="78">
         <v>12.63</v>
       </c>
       <c r="K501" s="24">
@@ -27206,7 +27174,7 @@
       <c r="I502" s="27">
         <v>1E-3</v>
       </c>
-      <c r="J502" s="97">
+      <c r="J502" s="78">
         <v>6.68</v>
       </c>
       <c r="K502" s="24">
@@ -27253,7 +27221,7 @@
       <c r="I503" s="31">
         <v>1E-3</v>
       </c>
-      <c r="J503" s="98">
+      <c r="J503" s="79">
         <v>50.99</v>
       </c>
       <c r="K503" s="30">
@@ -27931,20 +27899,20 @@
     </sortState>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="R30:S30"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="R30:S30"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="B4:O503">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>($K4&lt;$N4)+($L4&lt;$O4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27957,8 +27925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -27972,11 +27940,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="105" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
     </row>
     <row r="3" spans="2:4" ht="14.25" customHeight="1">
       <c r="B3" s="14" t="s">
